--- a/data/hotels_by_city/Houston/Houston_shard_601.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_601.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="662">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d2712053-Reviews-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Staybridge-Suites-Houston-IAH-Beltway-8.h5156128.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1876 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r602436084-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>2712053</t>
+  </si>
+  <si>
+    <t>602436084</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed a night while on tour with Ryan Broshear playing music in Houston. The rooms were clean, comfortable beds, and well laid out. Nice having a kitchen while on the road. We will definitely stay here again if in the area and we will recommend to friends!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r601969689-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601969689</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>This hotel wasn't bad for the price we paid ($102 including tax), but it definitely had some issues. The toilet made a high pitched whistling noise like a tea kettle for several minutes every time it was flushed. The sink was cracked in several spots. The microwave was finicky and required some sort of strange set of moves to get it to work. My super-handy husband messed with it for quite some time before getting it to work once, and wasn't able to replicate that again. Also, there was a prominent sign at the counter saying there was a free gift for IHG rewards members, but although someone had written that we were rewards members in Sharpie on our check-in documents, no free gift was offered.That said, the included breakfast was nice with a lot of variety, the bed was reasonably comfortable, the room was spacious, and it was very convenient to the airport. And did I mention it was cheap?MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This hotel wasn't bad for the price we paid ($102 including tax), but it definitely had some issues. The toilet made a high pitched whistling noise like a tea kettle for several minutes every time it was flushed. The sink was cracked in several spots. The microwave was finicky and required some sort of strange set of moves to get it to work. My super-handy husband messed with it for quite some time before getting it to work once, and wasn't able to replicate that again. Also, there was a prominent sign at the counter saying there was a free gift for IHG rewards members, but although someone had written that we were rewards members in Sharpie on our check-in documents, no free gift was offered.That said, the included breakfast was nice with a lot of variety, the bed was reasonably comfortable, the room was spacious, and it was very convenient to the airport. And did I mention it was cheap?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r601169514-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601169514</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Clean Rooms</t>
+  </si>
+  <si>
+    <t>Was warmly greeted at the front desk by very friendly staff. The room was very clean, and the free laundry facilities were a wonderful surprise for us as travelers. Super convenient location in quick driving distance of everywhere we needed to stop. Highly recommend to anyone stopping and staying in Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r594340964-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594340964</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Overnight Flight Layover</t>
+  </si>
+  <si>
+    <t>I have come to appreciate Staybridge Suites for their affordability and given amenities. This Staybridge certainly did not disappoint. Seemingly new or refreshed-it had a welcoming lobby and bar area well-suited for business travelers. Checking in had a bit of a concern with the new debit card policy but it was smoothed by their operational manager and off to a well appointed room for the night. The room was very clean and was appreciated by this traveler who had had a very long day. Surprisingly-on inspection of the rooms amenities-found approximately 2-4 paper plates and shrink-wrapped eating utensils in the microwave (available for those who might warm food for meals). I thought this an extremely sensitive and thoughtful gesture on the part of the hotel. Since I was only there one night (with an early flight), I could not take full advantage of the complimentary breakfast buffet but was able to snag a muffin on the way out. If you are flying in and out of IAH, there is a complimentary airport shuttle that runs on the hour/half-hour. All shuttle drivers were extremely courteous and helpful. Kudos again on a job well-done Staybridge! Will see you again on my next journey to or through Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have come to appreciate Staybridge Suites for their affordability and given amenities. This Staybridge certainly did not disappoint. Seemingly new or refreshed-it had a welcoming lobby and bar area well-suited for business travelers. Checking in had a bit of a concern with the new debit card policy but it was smoothed by their operational manager and off to a well appointed room for the night. The room was very clean and was appreciated by this traveler who had had a very long day. Surprisingly-on inspection of the rooms amenities-found approximately 2-4 paper plates and shrink-wrapped eating utensils in the microwave (available for those who might warm food for meals). I thought this an extremely sensitive and thoughtful gesture on the part of the hotel. Since I was only there one night (with an early flight), I could not take full advantage of the complimentary breakfast buffet but was able to snag a muffin on the way out. If you are flying in and out of IAH, there is a complimentary airport shuttle that runs on the hour/half-hour. All shuttle drivers were extremely courteous and helpful. Kudos again on a job well-done Staybridge! Will see you again on my next journey to or through Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r582303866-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582303866</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>My favorite place</t>
+  </si>
+  <si>
+    <t>I have stayed in Staybridge Suites in other cities before, so there were no surprises. I am only taking one star off because of the electricity problems they had that elevator was not working for a while. However, they took care of the problem very fast first thing in the morning. As always, rooms were clean and comfortable, breakfast was awesome. I love their to go packets for taking breakfast if you don't have enough time to sit. The front desk was a very nice and friendly guy. They have 24 hour coffee and tea in the lobby but it wasn't hot enough, just warm.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Staybridge Suit... H, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed in Staybridge Suites in other cities before, so there were no surprises. I am only taking one star off because of the electricity problems they had that elevator was not working for a while. However, they took care of the problem very fast first thing in the morning. As always, rooms were clean and comfortable, breakfast was awesome. I love their to go packets for taking breakfast if you don't have enough time to sit. The front desk was a very nice and friendly guy. They have 24 hour coffee and tea in the lobby but it wasn't hot enough, just warm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r581549024-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581549024</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Was perfect for my overnight layover</t>
+  </si>
+  <si>
+    <t>Wonderful hotel with great service. Was picked up at the airport via shuttle by the most courteous and helpful driver John. Easy check in and was surprised by how large and clean the room was. Bed was very comfortable and had a wonderful sleep. Great selection at the free breakfast buffet.The icing on the cake was when I reached my airport gate and noticed I had lost my wallet. I knew I had it last on the shuttle so called the hotel and the lovely John returned it to me. Definitely a great hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>StaybridgeHotelStaff, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Wonderful hotel with great service. Was picked up at the airport via shuttle by the most courteous and helpful driver John. Easy check in and was surprised by how large and clean the room was. Bed was very comfortable and had a wonderful sleep. Great selection at the free breakfast buffet.The icing on the cake was when I reached my airport gate and noticed I had lost my wallet. I knew I had it last on the shuttle so called the hotel and the lovely John returned it to me. Definitely a great hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r565674545-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565674545</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Great place, peaceful and lovely staff</t>
+  </si>
+  <si>
+    <t>Staybridge Suites 1-10W Beltway3251 W Sam Houston N ParkwayHoustonTexas 77043Price about $ 110 a night, taxi 40mins from the airport ($90 plus tip), arrived late doors were closed but they were opened quickly and we were checked in 5mins by LarryThe beds are comfortable, peaceful hotel. Pros: +Good business residential Free shuttle bus to 5 mile radius to hotel (Thanks Roy and other Latino lady )Good food not-unhealthy American breakfast for onceThey provide a shuttle bus to take you to and fro Friendy and help staffMassive fridge and microwaveKitchenetteLots of social evening events for business peopleSwimming poolCons:Far away from anywhere to eatNo safe in the rooms to keep moneyFront rooms oversee a highway of speeding trucks (but that Houston for you)Highly recommended!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Staybridge Suites 1-10W Beltway3251 W Sam Houston N ParkwayHoustonTexas 77043Price about $ 110 a night, taxi 40mins from the airport ($90 plus tip), arrived late doors were closed but they were opened quickly and we were checked in 5mins by LarryThe beds are comfortable, peaceful hotel. Pros: +Good business residential Free shuttle bus to 5 mile radius to hotel (Thanks Roy and other Latino lady )Good food not-unhealthy American breakfast for onceThey provide a shuttle bus to take you to and fro Friendy and help staffMassive fridge and microwaveKitchenetteLots of social evening events for business peopleSwimming poolCons:Far away from anywhere to eatNo safe in the rooms to keep moneyFront rooms oversee a highway of speeding trucks (but that Houston for you)Highly recommended!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r562568182-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562568182</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>First Staybridge Booking</t>
+  </si>
+  <si>
+    <t>This was a layover hotel for one night on a return trip from Central America.  After a small hiccup with the shuttle service from the airport, the rest of my experience was very positive.  The room was clean, comfortable and quiet.  This seems to be more of a long term stay hotel, but the one night stay was enjoyable.  The business center was convenient.  Additionally, the included breakfast was one of the nicest I've seen with items catering to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Staybridge Suit... H, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2018</t>
+  </si>
+  <si>
+    <t>This was a layover hotel for one night on a return trip from Central America.  After a small hiccup with the shuttle service from the airport, the rest of my experience was very positive.  The room was clean, comfortable and quiet.  This seems to be more of a long term stay hotel, but the one night stay was enjoyable.  The business center was convenient.  Additionally, the included breakfast was one of the nicest I've seen with items catering to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r560320250-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560320250</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Spent two nights here on the back end of a cruise out of GalvestonWe had an early flight and wanted easy access to the airport and rental car terminal. Pleasant staff, clean comfortable rooms, and the great breakfast was an unexpected bonus. Would happily stay here again given the chance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r555521985-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555521985</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Trip to visit friend</t>
+  </si>
+  <si>
+    <t>Great place to stay. Easy access to Frwy. Staff was wonderful. Bed and room very comfy. I would soooooo stay here again!!! Fully stocked kitchenette. Twice I had to ask one of the sweet lil housekeepers to get ice for me  because ice maker in frig was slow. She was happy to do it for me. MoreShow less</t>
+  </si>
+  <si>
+    <t>Staybridge Suit... H, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Great place to stay. Easy access to Frwy. Staff was wonderful. Bed and room very comfy. I would soooooo stay here again!!! Fully stocked kitchenette. Twice I had to ask one of the sweet lil housekeepers to get ice for me  because ice maker in frig was slow. She was happy to do it for me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r538537821-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538537821</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Best place in Houston</t>
+  </si>
+  <si>
+    <t>This past week I stayed at Staybridge Suites in Houston,  the staff was really friendly. I really liked that they had cold bottles of of waters at the front desk for the customers at their arrival. The staff at the front desk was really friendly and helpful. My room was very neat, the sheets smelt fresh and clean. The front desk provided me with tooth paste, tooth brush and a comb complimentary. The breakfast room was really lovely with plenty of options, it was a very rich buffett. Really loved the eggs and potatoes. They also had healthy choices like sugar free yogurts. On top of all this, they offer a free shuttle service within 5 miles from the hotel. All the common areas of the hotel were well kept and with modern decor. It was my first time at this hotel , i would definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>This past week I stayed at Staybridge Suites in Houston,  the staff was really friendly. I really liked that they had cold bottles of of waters at the front desk for the customers at their arrival. The staff at the front desk was really friendly and helpful. My room was very neat, the sheets smelt fresh and clean. The front desk provided me with tooth paste, tooth brush and a comb complimentary. The breakfast room was really lovely with plenty of options, it was a very rich buffett. Really loved the eggs and potatoes. They also had healthy choices like sugar free yogurts. On top of all this, they offer a free shuttle service within 5 miles from the hotel. All the common areas of the hotel were well kept and with modern decor. It was my first time at this hotel , i would definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r532075548-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532075548</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>After a month of travelling around the US, Staybridge Suites was our last hotel stay.  And probably one of the best out of maybe 24 hotels.   Excellent friendly service - front desk was courteous and very efficient dealing with our various requests.   Our King Suite was very well appointed and clean - which doesn't seem to be a given these days!   We were hugely grateful for the dinner provided for free (including wine and beer) Mondays to Wednesday and also for the free laundry facilities.  Hotel also has a nice pool area with grill.    We will definitely be looking at staying at Staybridge Suites in the future as a result of our experience at this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>After a month of travelling around the US, Staybridge Suites was our last hotel stay.  And probably one of the best out of maybe 24 hotels.   Excellent friendly service - front desk was courteous and very efficient dealing with our various requests.   Our King Suite was very well appointed and clean - which doesn't seem to be a given these days!   We were hugely grateful for the dinner provided for free (including wine and beer) Mondays to Wednesday and also for the free laundry facilities.  Hotel also has a nice pool area with grill.    We will definitely be looking at staying at Staybridge Suites in the future as a result of our experience at this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r526422906-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526422906</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Above and beyond service</t>
+  </si>
+  <si>
+    <t>After arriving in Houston amidst Hurricane Harvey after midnight , the rising flood waters prevented us getting to our original accommodation. Luckily for us the point at which we got trapped by the floodwaters was right outside the Staybridge Suites. We were unable to leave the hotel for 4 days. The staff at the hotel were fantastic and made sure the needs of our young children like water were looked after. We can't thank them enough. The hotel also did a superb job in managing the food supply to ensure everyone was fed. Once again we would like to thank the Management and staff of Staybridge for going above and beyond at a time when their own families lives were impacted. Thank you!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>After arriving in Houston amidst Hurricane Harvey after midnight , the rising flood waters prevented us getting to our original accommodation. Luckily for us the point at which we got trapped by the floodwaters was right outside the Staybridge Suites. We were unable to leave the hotel for 4 days. The staff at the hotel were fantastic and made sure the needs of our young children like water were looked after. We can't thank them enough. The hotel also did a superb job in managing the food supply to ensure everyone was fed. Once again we would like to thank the Management and staff of Staybridge for going above and beyond at a time when their own families lives were impacted. Thank you!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r520518971-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520518971</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff</t>
+  </si>
+  <si>
+    <t>I've been in Staybridge during the Harvey Hurricane and all staff have been great. We have been surrounded by water and nothing failed. Plenty of food and water and always good mood. Highly recommend Hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>I've been in Staybridge during the Harvey Hurricane and all staff have been great. We have been surrounded by water and nothing failed. Plenty of food and water and always good mood. Highly recommend Hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r516499941-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516499941</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Bad internet, dont stay if important to you</t>
+  </si>
+  <si>
+    <t>Some good things about this place. Mon thru Wed comp mini dinner and drinks. Not bad but not much selection. Place is new and just off I8. Get Holiday Inn points, comfortable bed and have kitchenette. Decent size mini suite. Service good.Bad things: horrible internet, hard to connect and slowwwww, thin walls and ceilings so can hear all the neighbors. The area is bad with no immediate restaurants , bars, etcWith bad internet, cant give them more then a 3 star ratingMoreShow less</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Some good things about this place. Mon thru Wed comp mini dinner and drinks. Not bad but not much selection. Place is new and just off I8. Get Holiday Inn points, comfortable bed and have kitchenette. Decent size mini suite. Service good.Bad things: horrible internet, hard to connect and slowwwww, thin walls and ceilings so can hear all the neighbors. The area is bad with no immediate restaurants , bars, etcWith bad internet, cant give them more then a 3 star ratingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r510562707-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510562707</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>"Very Good"</t>
+  </si>
+  <si>
+    <t>Not being familiar with Houston and needing to be close to the airport we chose Staybridge. We needed to catch a shuttle to the airport in order to catch a shuttle to Galveston the next day for our cruise. Staybridge offered this service. Our room was nice and we were surprised it included a kitchen. We didn't need it because it was just for overnight. There are many hotels much closer to the airport but his one satisfied our needs. The breakfast in the morning was average to excellent depending on what you like. I enjoyed the waffle I had. Unfortunately we took a taxi to the hotel and because of construction it cost a lot more as we had to travel further up the road  until we could turn around. The cab driver apologized but what can you do.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>SBManager, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Not being familiar with Houston and needing to be close to the airport we chose Staybridge. We needed to catch a shuttle to the airport in order to catch a shuttle to Galveston the next day for our cruise. Staybridge offered this service. Our room was nice and we were surprised it included a kitchen. We didn't need it because it was just for overnight. There are many hotels much closer to the airport but his one satisfied our needs. The breakfast in the morning was average to excellent depending on what you like. I enjoyed the waffle I had. Unfortunately we took a taxi to the hotel and because of construction it cost a lot more as we had to travel further up the road  until we could turn around. The cab driver apologized but what can you do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r509489050-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509489050</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Nice Suite Hotel Close to IAH</t>
+  </si>
+  <si>
+    <t>I love the Staybridge Suites brand.I like the types of room configurations and they offer one of the best breakfasts I have encountered at any chain hotel. Unfortunately not all Staybridge Suites locations are created equal and the one near IAH is above average but not the best in class. I was given a room upgrade and had a very good stay. I like the common areas but wish the facility was entirely smoke free. Good staff but a difficult location to access with construction on Beltway 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>I love the Staybridge Suites brand.I like the types of room configurations and they offer one of the best breakfasts I have encountered at any chain hotel. Unfortunately not all Staybridge Suites locations are created equal and the one near IAH is above average but not the best in class. I was given a room upgrade and had a very good stay. I like the common areas but wish the facility was entirely smoke free. Good staff but a difficult location to access with construction on Beltway 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r508555470-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508555470</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delightful </t>
+  </si>
+  <si>
+    <t>Beautiful room, awesome choices at breakfast. Also enjoyed the free evening snack/light supper. Stay here whoever we have business or medical appointments in Houston. Friendly front desk and a convenient business center that we could do some quick printing. MoreShow less</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful room, awesome choices at breakfast. Also enjoyed the free evening snack/light supper. Stay here whoever we have business or medical appointments in Houston. Friendly front desk and a convenient business center that we could do some quick printing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r463906230-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463906230</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Great room at a great price</t>
+  </si>
+  <si>
+    <t>A wonderful spacious suite close to the airport at a very reasonable price. We only stayed for one night but it would be a great place for an extended stay. Service was great and breakfast was great too.  The only issue was that their airport shuttle stops running at 10:30 pm. When I made the reservation online I included our flight arrival time (11:00 pm) and noted that we would be requesting the shuttle.  When we arrived at IAH we called and requested the shuttle and we were told about the 10:30 cut off time for the shuttle.  It would have been nice if someone had looked at the request on our reservation and let us know the shuttle would not be available for us. We might have planned differently as a result.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Arielle M, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>A wonderful spacious suite close to the airport at a very reasonable price. We only stayed for one night but it would be a great place for an extended stay. Service was great and breakfast was great too.  The only issue was that their airport shuttle stops running at 10:30 pm. When I made the reservation online I included our flight arrival time (11:00 pm) and noted that we would be requesting the shuttle.  When we arrived at IAH we called and requested the shuttle and we were told about the 10:30 cut off time for the shuttle.  It would have been nice if someone had looked at the request on our reservation and let us know the shuttle would not be available for us. We might have planned differently as a result.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r454121839-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454121839</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Wedding with Family</t>
+  </si>
+  <si>
+    <t>Stayed overnight for Houston wedding. New and very clean. We had a nice large 2 bedroom that worked great for my husband and I and our two daughters. Free parking. Free breakfast. Desk staff friendly and helpful. I would recommend.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r448329003-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448329003</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Great staff, very functional breakfast area, close to airport</t>
+  </si>
+  <si>
+    <t>Spent 14 days here while on special assignment to Houston, TX to work at IAH airport.  Originally they assigned me a ground floor room however I asked for higher floor as I needed a quiet room to sleep at various times during the day or night.  Got a 4th floor room and hardly ever heard a thing and I was sleeping several different time periods during the day/night.  Breakfast area had full breakfast with eggs, bacon/sausage, fresh waffles, yogurt, fruit, rolls, bagels, toast, juices and coffee.  Regular, decaf, tea and hot water was available free 24 hours a day and I used it regularly.  Nice no cost laundry (except for soap) and there was a room with exercise equipment.  Front desk staff was very friendly and helpful.  Had stove, refrigerator, and microwave in room.  Parking lot had security guard at night which was nice.  My 2 weeks in this hotel were very satisfactory and I would definitely stay again if I had to work in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Spent 14 days here while on special assignment to Houston, TX to work at IAH airport.  Originally they assigned me a ground floor room however I asked for higher floor as I needed a quiet room to sleep at various times during the day or night.  Got a 4th floor room and hardly ever heard a thing and I was sleeping several different time periods during the day/night.  Breakfast area had full breakfast with eggs, bacon/sausage, fresh waffles, yogurt, fruit, rolls, bagels, toast, juices and coffee.  Regular, decaf, tea and hot water was available free 24 hours a day and I used it regularly.  Nice no cost laundry (except for soap) and there was a room with exercise equipment.  Front desk staff was very friendly and helpful.  Had stove, refrigerator, and microwave in room.  Parking lot had security guard at night which was nice.  My 2 weeks in this hotel were very satisfactory and I would definitely stay again if I had to work in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r421395251-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421395251</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Extremely nice hotel</t>
+  </si>
+  <si>
+    <t>This is my first stay at a Staybridge Hotel and my brand loyalty to Hyatt and Marriott has now been challenged. This is a very nice property; I'll stay at others to evaluate the chain as a whole. The hotel is very close to the Sam Houston Parkway but my room was on the rear of the building so there was no road noise. It's convenient to IAH, and I stayed only one night prior to an early flight. The room is very large, but still cozy. The bed was comfortable, and the pillows perfect. The desk and chair were just fine. The kitchen had everything you could want. All the dishes, flatware, cookware, etc. you need. Nothing was missing and everything in the room was in perfect condition. The bathroom has a separate closet/sink area you pass thru prior to entering the separate shower/toilet area (which has a door). The shower was very nice - roomy, tiled and like new. When I checked in the staff could not have been more warm and friendly. Not over the top, but natural. I reiterate - I will look for Staybridge Suites the next time I travel, especially for a longer visit as the amenities are well suited for a stay of 3, 5, 7 days or more. Very, very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This is my first stay at a Staybridge Hotel and my brand loyalty to Hyatt and Marriott has now been challenged. This is a very nice property; I'll stay at others to evaluate the chain as a whole. The hotel is very close to the Sam Houston Parkway but my room was on the rear of the building so there was no road noise. It's convenient to IAH, and I stayed only one night prior to an early flight. The room is very large, but still cozy. The bed was comfortable, and the pillows perfect. The desk and chair were just fine. The kitchen had everything you could want. All the dishes, flatware, cookware, etc. you need. Nothing was missing and everything in the room was in perfect condition. The bathroom has a separate closet/sink area you pass thru prior to entering the separate shower/toilet area (which has a door). The shower was very nice - roomy, tiled and like new. When I checked in the staff could not have been more warm and friendly. Not over the top, but natural. I reiterate - I will look for Staybridge Suites the next time I travel, especially for a longer visit as the amenities are well suited for a stay of 3, 5, 7 days or more. Very, very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r417541267-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417541267</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>PERFECT COMBINATION FOR WORK NEAR FROM AIRPORT</t>
+  </si>
+  <si>
+    <t>Excellent ubication near the airport. Nice and big rooms equiped with kitchen, fridge, oven and everything for long stays. Free breackfast and wifi. No charge for packages reception. Free parking. good access.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r417538417-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417538417</t>
+  </si>
+  <si>
+    <t>Excellent Hotel for work and long stays. Offer kitchen, fridge and oven facilities...Nice pool and gym. The brackfast is ok. Free parking and wifi. Near from the airport.good place to sleep and work...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r370734066-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370734066</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Feels like an apartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love this hotel it's always my first choice when visiting Houston. The layout of the suite feels so spacious and comfortable. suites are well kept and clean with modern decor. Breakfast is included and is pretty good great selection of items.  You can even pack a to go bag if you are short on time. Only con for me was the wifi on my last visit it was pretty spotty the signal strength was week. Other than that great place with nice staff. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r370382285-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370382285</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Hard to beat!</t>
+  </si>
+  <si>
+    <t>I often stay overnight in the IAH area, and this has been one of the best so far. A little farther as the usual JFK blvd hotels, and not in walking distance from my favorite Good Eats restaurant, but they make up for lack of restaurants by offering great food at happy hour, as well as a perfect breakfast in a nice and clean area. Room and staff very good as well. Would choose this again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r361826526-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361826526</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Awesome hotel and staff</t>
+  </si>
+  <si>
+    <t>We overnights in Houston while returning home from a trip. The hotel is convienent located to the George Bush International airport and they provide shuttle service. The staff were very friendly and helpful. The room was very clean and spacious by most midrange hotel standards. They offered a free evening supper that included pizza and salad, along with wine, beer and soft drinks. We certainly would stay here again when and if we are passing through again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r356859267-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356859267</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>We will be back!!</t>
+  </si>
+  <si>
+    <t>The rooms are divine and the breakfast is outstanding.  All the staff are very helpful and courteous.  We just returned from out of country to find they have free laundry facilites - what a treat!!  The shuttle service even delivered us to the car rental company.  We love this place.  We will be back for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ado B, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are divine and the breakfast is outstanding.  All the staff are very helpful and courteous.  We just returned from out of country to find they have free laundry facilites - what a treat!!  The shuttle service even delivered us to the car rental company.  We love this place.  We will be back for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r350036293-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350036293</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay near IAH</t>
+  </si>
+  <si>
+    <t>This hotel is closer to IAH than you may think. Access is fast and convenient. It is clean, the rooms are comfortable and the price is very reasonable. Front desk staff are great. I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Ado B, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is closer to IAH than you may think. Access is fast and convenient. It is clean, the rooms are comfortable and the price is very reasonable. Front desk staff are great. I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r349627117-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349627117</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before I booked, I had doubts </t>
+  </si>
+  <si>
+    <t>I tought maybe there are family's living in the hotel because it has this spacios suites, and I was also worried about the location of the hotel, how can I get from the hotel to the AirPort and back. Eventually the pool convinced me to stay in this hotel. I was the perfect choice, when I arrived to the airport I called the hotel and the nice lady on the phone, drove to the airport immediately to pick me up, just for me! in the car we talked like she was my friend, and gave great advice. The hotel is super nice, beautiful spacious rooms. No noise from other guests and super friendly Staff. The result was a great first stay in Houston, With 12 Hours non stop sleep, in a super nice bed. And when I left I had energy for 10, due to the quiet room, good bed, perfect breakfast and friendly and carrying staff! Thank you for this wonderful time!A special thank you for the receptionist who picked me up from the airport, thank you for being so caring and friendly, you make this place like a home. MoreShow less</t>
+  </si>
+  <si>
+    <t>I tought maybe there are family's living in the hotel because it has this spacios suites, and I was also worried about the location of the hotel, how can I get from the hotel to the AirPort and back. Eventually the pool convinced me to stay in this hotel. I was the perfect choice, when I arrived to the airport I called the hotel and the nice lady on the phone, drove to the airport immediately to pick me up, just for me! in the car we talked like she was my friend, and gave great advice. The hotel is super nice, beautiful spacious rooms. No noise from other guests and super friendly Staff. The result was a great first stay in Houston, With 12 Hours non stop sleep, in a super nice bed. And when I left I had energy for 10, due to the quiet room, good bed, perfect breakfast and friendly and carrying staff! Thank you for this wonderful time!A special thank you for the receptionist who picked me up from the airport, thank you for being so caring and friendly, you make this place like a home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r339730203-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339730203</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This is about our 6th or 7th stay at this hotel.  Smiling  and helpful people are there to help with whatever you might need during your stay.  As always, nice, neat, friendly and just plain awesome.  Will continue to stay here all on future trips to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This is about our 6th or 7th stay at this hotel.  Smiling  and helpful people are there to help with whatever you might need during your stay.  As always, nice, neat, friendly and just plain awesome.  Will continue to stay here all on future trips to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r339637269-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339637269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super service.  Super comfort.  </t>
+  </si>
+  <si>
+    <t>We spent the day visiting the LBJ SPACE CENTER before heading up. After a brief snag at check in (  As a IHG Platinum Elite Member, they had automatically given me an upgrade ) , we got all settled in to our suite.  It was pouring rain, but fortunately , there was no need to leave for dinner because there was a " Managers Reception Dinner " that night !   There was a nice salad bar for starters plus burgers and hot dogs with all the fixings , soft drinks and beer on tap and wine as well. Even cookies and coffee for dessert.  That was a relaxing way to have our dinner and a money saver too .Above average breakfast with great coffee and the waffle machine made them shaped like Texas.  There was a problem with low shower pressure ; too late to change rooms , but KUDOS  to the GM - Ado for addressing  and remedying the situation professionally . Easy shuttle ride to the airport to catch our flight AND quick pick up upon our return.   The courtesy of the staff , overall cleanliness of the facility,  room comfort , decent work out room and proximity to the airport will have me staying here again next time I'm in the area for sure.   Well done , Staybridge  !MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent the day visiting the LBJ SPACE CENTER before heading up. After a brief snag at check in (  As a IHG Platinum Elite Member, they had automatically given me an upgrade ) , we got all settled in to our suite.  It was pouring rain, but fortunately , there was no need to leave for dinner because there was a " Managers Reception Dinner " that night !   There was a nice salad bar for starters plus burgers and hot dogs with all the fixings , soft drinks and beer on tap and wine as well. Even cookies and coffee for dessert.  That was a relaxing way to have our dinner and a money saver too .Above average breakfast with great coffee and the waffle machine made them shaped like Texas.  There was a problem with low shower pressure ; too late to change rooms , but KUDOS  to the GM - Ado for addressing  and remedying the situation professionally . Easy shuttle ride to the airport to catch our flight AND quick pick up upon our return.   The courtesy of the staff , overall cleanliness of the facility,  room comfort , decent work out room and proximity to the airport will have me staying here again next time I'm in the area for sure.   Well done , Staybridge  !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r335766788-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335766788</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Quick Stay</t>
+  </si>
+  <si>
+    <t>Our flight was cancelled so we had to book a room somewhere near the airport. This was not the closest hotel but the only one available. Rooms were Comfortable, Staff was friendly. 2 bedroom suite spacious and comfortable, but it is not that close to the airport (it is a 12 minute ride) and shutlles are not that fast we waited for more than 15 minutes to get picked up, so take your time. Small Pantry was helpful for things we needed and a quick dinner.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r331630470-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331630470</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Great deal for the price!</t>
+  </si>
+  <si>
+    <t>We stayed at the Staybridge and got an awesome deal on the price. The price was so good, even the front desk clerk questioned where I got it from. It's conveniently among what I call "hotel row" near IAH. The staff was great, breakfast was good and we were able to bring our dog with us this time. The fee was not outrageous and they had special pet areas around the hotel.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r326722938-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326722938</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Stayed the weekend at the Staybridge. The room was immaculate. The continental breakfast was nice and well stocked.  The check-in process was a little delayed but all in all a very nice stay. I also spent an hour in the gym room. The machines were clean and well cared for. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Stayed the weekend at the Staybridge. The room was immaculate. The continental breakfast was nice and well stocked.  The check-in process was a little delayed but all in all a very nice stay. I also spent an hour in the gym room. The machines were clean and well cared for. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r325155448-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325155448</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Great attention to detail!</t>
+  </si>
+  <si>
+    <t>We arrived at Staybridge near midnight to a warm welcome from the front desk.  Within five minutes of entering our hotel room, the front desk called to see if we were pleased with the accommodations--that's paying attention to detail!  The room was clean and comfortable.  The bed was also very comfortable.  Breakfast this morning had many choices, some of which included an egg omelet, waffles, cereal and fruit.  Coffee was perfect!  One detail I liked was the "to-go" bag that was supplied if you were eating breakfast on the run.  In our many years of traveling, we have never been offered breakfast on the go.  We'll be spending the evening at Staybridge again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Ado B, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded December 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2015</t>
+  </si>
+  <si>
+    <t>We arrived at Staybridge near midnight to a warm welcome from the front desk.  Within five minutes of entering our hotel room, the front desk called to see if we were pleased with the accommodations--that's paying attention to detail!  The room was clean and comfortable.  The bed was also very comfortable.  Breakfast this morning had many choices, some of which included an egg omelet, waffles, cereal and fruit.  Coffee was perfect!  One detail I liked was the "to-go" bag that was supplied if you were eating breakfast on the run.  In our many years of traveling, we have never been offered breakfast on the go.  We'll be spending the evening at Staybridge again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r317748776-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317748776</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a wedding we were attending in Houston, it's a little farther away than we would have liked from the rest of the guest but it was worth it! Clean, modern rooms. Felt like home, after the wedding we cuddled on the sectional couch, drank some wine (which we bought for a reasonable price in The Pantry, and used the wine glasses from the fully stocked kitchen) prior to the wedding the bridal party decided snacks were needed and I stopped at The Pantry and bought a ton of stuff(again very reasonably priced) and the staff was very helpful in . The outdoor space is comfortable and clean. If we ever come down to visit the newly weds again we will stay hereMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a wedding we were attending in Houston, it's a little farther away than we would have liked from the rest of the guest but it was worth it! Clean, modern rooms. Felt like home, after the wedding we cuddled on the sectional couch, drank some wine (which we bought for a reasonable price in The Pantry, and used the wine glasses from the fully stocked kitchen) prior to the wedding the bridal party decided snacks were needed and I stopped at The Pantry and bought a ton of stuff(again very reasonably priced) and the staff was very helpful in . The outdoor space is comfortable and clean. If we ever come down to visit the newly weds again we will stay hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r315853307-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315853307</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Top notch suite</t>
+  </si>
+  <si>
+    <t>The first thing when I got there at 11:45 pm was how friendly Ashley was. While the outside looks standard flare, the inside was quite a different story as it was first rate. The facilities were extremely clean, quiet and comfortable. This has full size refrigerator, stove , nice size suite making a week or month long stay comfortable. Full laundry service and strict no smoking policy were a real bonus. Highly recommend this for one night through a month. Exceptional staffing MoreShow less</t>
+  </si>
+  <si>
+    <t>The first thing when I got there at 11:45 pm was how friendly Ashley was. While the outside looks standard flare, the inside was quite a different story as it was first rate. The facilities were extremely clean, quiet and comfortable. This has full size refrigerator, stove , nice size suite making a week or month long stay comfortable. Full laundry service and strict no smoking policy were a real bonus. Highly recommend this for one night through a month. Exceptional staffing More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r314746582-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314746582</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Great Place To Stay For Business</t>
+  </si>
+  <si>
+    <t>First of all the staff and facility were top notch.  The suite was clean, modern, and comfortable.  They offered free breakfast everyday as well as a dinner reception Tuesdays through Thursdays.  I would recommend this hotel for short or long term visitors.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>First of all the staff and facility were top notch.  The suite was clean, modern, and comfortable.  They offered free breakfast everyday as well as a dinner reception Tuesdays through Thursdays.  I would recommend this hotel for short or long term visitors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r303815505-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303815505</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Honeymoon part 5</t>
+  </si>
+  <si>
+    <t>A good 'night before flight' hotel. Clean and tidy with nice size room and kitchenette. Wish I'd stopped at a supermarket before as local gas station was sparse and we didn't fancy BK. good buffet breakfast although v busy. V close to car rental return. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>A good 'night before flight' hotel. Clean and tidy with nice size room and kitchenette. Wish I'd stopped at a supermarket before as local gas station was sparse and we didn't fancy BK. good buffet breakfast although v busy. V close to car rental return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r292761394-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292761394</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Top Notch</t>
+  </si>
+  <si>
+    <t>This hotel was by far one of the very best I have ever stayed in.  You could not beat it for the price and I think it was far better than some top price hotels.  Front desk staff were very friendly and willing to help out in any way possible.  The room was a suite.  Full kitchen with full size appliances (stainelss steel) fridge w/icemaker, dishwasher and a two burner stove top. We had a stocked kitchen with plates, silverware, pots and pans, toaster, microwave and real glasses, wine and water.  Even had a wine opener.  It is located close to the airport and the freeway but the building is so tight that you did not hear the planes or traffic from inside the room.   The bed and lines were very soft and comfy. There was a small pool, nice tables and chairs, umbrella on one table.  The included hot breakfast was very good.  They had premade omlets that were delicious.  All kinds of muffins, fruit, cheeses, oatmeal, cereal, bacon, waffles, yogurt, fantastic coffee, milk, juices, and I am sure I am missing something.  I was pretty much ready to just move in and live there, it was that nice.  I can't imagine anyone that would be unhappy with this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This hotel was by far one of the very best I have ever stayed in.  You could not beat it for the price and I think it was far better than some top price hotels.  Front desk staff were very friendly and willing to help out in any way possible.  The room was a suite.  Full kitchen with full size appliances (stainelss steel) fridge w/icemaker, dishwasher and a two burner stove top. We had a stocked kitchen with plates, silverware, pots and pans, toaster, microwave and real glasses, wine and water.  Even had a wine opener.  It is located close to the airport and the freeway but the building is so tight that you did not hear the planes or traffic from inside the room.   The bed and lines were very soft and comfy. There was a small pool, nice tables and chairs, umbrella on one table.  The included hot breakfast was very good.  They had premade omlets that were delicious.  All kinds of muffins, fruit, cheeses, oatmeal, cereal, bacon, waffles, yogurt, fantastic coffee, milk, juices, and I am sure I am missing something.  I was pretty much ready to just move in and live there, it was that nice.  I can't imagine anyone that would be unhappy with this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r291908749-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291908749</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Convenience key with great amenities make for sure thing 20 min from Downtown</t>
+  </si>
+  <si>
+    <t>Roomy suites...decent breakfast. ..great social hour Tuesday. To Thursday...friendly staff....nice pool area ...good size fitness....10 min from IAH and 20 or so from downtown Houston. ..solid choice when in areaMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Roomy suites...decent breakfast. ..great social hour Tuesday. To Thursday...friendly staff....nice pool area ...good size fitness....10 min from IAH and 20 or so from downtown Houston. ..solid choice when in areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r286965222-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286965222</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Airport Layover - Houston</t>
+  </si>
+  <si>
+    <t>My wife and I had a 1 night layover in Houston. Staff was very friendly and obliging. Rooms are well appointed with comfortable bed, fully equiped kitchen, shampoos and soaps, flat screen tv, free wifi, airport shuttle, free buffet breakfast. We were very happy with the value received and would definitely stay again. I have no hesitation in recommending this hotel for a short layover.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Ado B, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I had a 1 night layover in Houston. Staff was very friendly and obliging. Rooms are well appointed with comfortable bed, fully equiped kitchen, shampoos and soaps, flat screen tv, free wifi, airport shuttle, free buffet breakfast. We were very happy with the value received and would definitely stay again. I have no hesitation in recommending this hotel for a short layover.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r282751238-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282751238</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Excellent as usual</t>
+  </si>
+  <si>
+    <t>Staybridge is one of the hotel chains to stay in my opinion! Stayed in several. This one is close to the airport, outdoor pool handy when it's sunny! Staff really friendly! Have not got a bad word to say about this hotel! Defo stay here again next time I'm in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staybridge is one of the hotel chains to stay in my opinion! Stayed in several. This one is close to the airport, outdoor pool handy when it's sunny! Staff really friendly! Have not got a bad word to say about this hotel! Defo stay here again next time I'm in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r277700516-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277700516</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Best front desk staff of all!</t>
+  </si>
+  <si>
+    <t>This property has mastered hospitality.  I wanted to pull up a chair at the front desk, and visit with all of them!   I arrived at the airport and called  for the shuttle.  An incredibly personable and welcoming young women arrived and we had a lovely conversation all the way back to the hotel.I found my room in spotless condition and very well decorated.  It had a small kitchen, shower, couch and queen bed.   I was pleasantly surprised to know they had a evening reception which included beer, wine, and dinner!   I enjoyed a lovely meal around the pool, and then walked around the exercise path outside.Everything about this property was great, and if I am ever needing an overnight at IAH again I will stay here,MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, General Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>This property has mastered hospitality.  I wanted to pull up a chair at the front desk, and visit with all of them!   I arrived at the airport and called  for the shuttle.  An incredibly personable and welcoming young women arrived and we had a lovely conversation all the way back to the hotel.I found my room in spotless condition and very well decorated.  It had a small kitchen, shower, couch and queen bed.   I was pleasantly surprised to know they had a evening reception which included beer, wine, and dinner!   I enjoyed a lovely meal around the pool, and then walked around the exercise path outside.Everything about this property was great, and if I am ever needing an overnight at IAH again I will stay here,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r269401028-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269401028</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Excellent option but....</t>
+  </si>
+  <si>
+    <t>beautiful brand new hotel.  Front desk staff very nice and helpful.  Nice breakfast.   Excellent choice. Only thing I did not like: we arrived on friday at around 10pm and we noticed a sign at the Front Desk stating that there is no housekeeping service during weekends. If you want it, you have to ask for it before 5pm.  Soooooo we spent three nights there, no housekeeping at all.  I don't think it is fair to pay what you pay to end up making your bed before going to sleep, etc etc.  I do that at home, not at a hotel where I am paying to get that done. And..... It is not about saving water, it is about saving salaries for the hotel managementMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>beautiful brand new hotel.  Front desk staff very nice and helpful.  Nice breakfast.   Excellent choice. Only thing I did not like: we arrived on friday at around 10pm and we noticed a sign at the Front Desk stating that there is no housekeeping service during weekends. If you want it, you have to ask for it before 5pm.  Soooooo we spent three nights there, no housekeeping at all.  I don't think it is fair to pay what you pay to end up making your bed before going to sleep, etc etc.  I do that at home, not at a hotel where I am paying to get that done. And..... It is not about saving water, it is about saving salaries for the hotel managementMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r267746369-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267746369</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Super property, great stay!</t>
+  </si>
+  <si>
+    <t>As Staybridge properties are one of our favorites, this property definitely lived up to the Staybridge standards.  The staff was friendly, especially the two women who drove the airport shuttle.  The accommodations were  very comfortable and nice and the fitness center and other amenities for longer stay guests were great. The morning breakfast had plenty of warm and hot choices and tasty.  The only negative which is no fault of this property is there are no close places to eat dinner should you stay when the evening reception is not offered, only a Burger King.  As we arrived later then normal dinner time, we did not opt to order delivery.  I would recommend this property if you need to stay near George Bush international.MoreShow less</t>
+  </si>
+  <si>
+    <t>As Staybridge properties are one of our favorites, this property definitely lived up to the Staybridge standards.  The staff was friendly, especially the two women who drove the airport shuttle.  The accommodations were  very comfortable and nice and the fitness center and other amenities for longer stay guests were great. The morning breakfast had plenty of warm and hot choices and tasty.  The only negative which is no fault of this property is there are no close places to eat dinner should you stay when the evening reception is not offered, only a Burger King.  As we arrived later then normal dinner time, we did not opt to order delivery.  I would recommend this property if you need to stay near George Bush international.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r266265006-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266265006</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>very  nice!!</t>
+  </si>
+  <si>
+    <t>we stayed at the Staybridge Suites, to be close to the airport. The room was very clean and spacious, the front desk personnel were very friendly, and nice. we left before breakfast. we would most likely stay there again if we need too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>we stayed at the Staybridge Suites, to be close to the airport. The room was very clean and spacious, the front desk personnel were very friendly, and nice. we left before breakfast. we would most likely stay there again if we need too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r260642665-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260642665</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Perfect Extended Stay Hotel</t>
+  </si>
+  <si>
+    <t>The Morning Breakfast and Evening Snacks are great , You can walk to the Shell gas station and burger king which makes it very good walk score , the airport shuttle is slow but remember to call as soon as u land . The rooms and Hotel is perfectly clean and great no complaintsMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>The Morning Breakfast and Evening Snacks are great , You can walk to the Shell gas station and burger king which makes it very good walk score , the airport shuttle is slow but remember to call as soon as u land . The rooms and Hotel is perfectly clean and great no complaintsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r258297866-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258297866</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Gorgeous hotel</t>
+  </si>
+  <si>
+    <t>Beautiful hotel. The green and blue colors in carpet, and on hotel walls are beautiful. The furniture is comfortable, outstanding kitchen with stainless steel appliances. Plenty of lighting.I'm amazed how nicely decorated this hotel is. Comfortable beds and pillows. Lots of storage in bedroom. Walk in shower and soft towels. Very clean hotel. This hotel really feels like home. Tuesday thru thursday dinner buffet  and hot breakfast in morning everyday. Both are delicious. This is a must stay hotel! Awesome staff, easy check in and check out. Ac works great, quiet hotel. Free laundry, light cleaning service everyday. Pet friendly! This is the best hotel I've stayed in. From now on This is my go to hotel when in houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Beautiful hotel. The green and blue colors in carpet, and on hotel walls are beautiful. The furniture is comfortable, outstanding kitchen with stainless steel appliances. Plenty of lighting.I'm amazed how nicely decorated this hotel is. Comfortable beds and pillows. Lots of storage in bedroom. Walk in shower and soft towels. Very clean hotel. This hotel really feels like home. Tuesday thru thursday dinner buffet  and hot breakfast in morning everyday. Both are delicious. This is a must stay hotel! Awesome staff, easy check in and check out. Ac works great, quiet hotel. Free laundry, light cleaning service everyday. Pet friendly! This is the best hotel I've stayed in. From now on This is my go to hotel when in houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r257122695-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257122695</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Front desk and manager excellent</t>
+  </si>
+  <si>
+    <t>The front desk and manager were very accommodating for our particular situation.   Plus the room and all other aspects of our stay was excellent.  Our room was quiet and provided a very restful night.   Everything was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>The front desk and manager were very accommodating for our particular situation.   Plus the room and all other aspects of our stay was excellent.  Our room was quiet and provided a very restful night.   Everything was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r253737970-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253737970</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Close to IAH but not much else</t>
+  </si>
+  <si>
+    <t>This hotel location is great if you need to go to Bush Intercontinental Airport (IAH). Make sure you eat somewhere else because there is very little nearby. Our room was spacious with a large comfy couch great for relaxing. The kitchen even had microwave popcorn for your movie. There was a good size fridge which is convenient for snacks. The beds were comfortable but the pillows were hard and lumpy. Our room had a large walk in shower (no tub) with good water pressure. The house keeping was lacking in the bathroom with the grout looking very dirty in the corners. Be aware that full house keeping is NOT available every day. The large common area was comfortable but all lights were off when we arrived about 6:30 pm. The breakfast was average with prepared omelets and sausage heated up. Some of the food items were empty by 9 am and the staff member was busy eating with no sign of refills coming.I would stay here again but there were a few quirks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>This hotel location is great if you need to go to Bush Intercontinental Airport (IAH). Make sure you eat somewhere else because there is very little nearby. Our room was spacious with a large comfy couch great for relaxing. The kitchen even had microwave popcorn for your movie. There was a good size fridge which is convenient for snacks. The beds were comfortable but the pillows were hard and lumpy. Our room had a large walk in shower (no tub) with good water pressure. The house keeping was lacking in the bathroom with the grout looking very dirty in the corners. Be aware that full house keeping is NOT available every day. The large common area was comfortable but all lights were off when we arrived about 6:30 pm. The breakfast was average with prepared omelets and sausage heated up. Some of the food items were empty by 9 am and the staff member was busy eating with no sign of refills coming.I would stay here again but there were a few quirks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r251007340-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251007340</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Just go</t>
+  </si>
+  <si>
+    <t>This place is amazing!!!! We only discovered Staybridge Suites at the end of our 5 week USA tour.. What a find! We could not fault one thing at all. We had the 2 bedroom suite with full kitchen.The food, cleanliness, staff, fire, FREE DINNER, location to Airport and freeways, etc. I could go on but instead will say.. Just go. You won't regret it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>This place is amazing!!!! We only discovered Staybridge Suites at the end of our 5 week USA tour.. What a find! We could not fault one thing at all. We had the 2 bedroom suite with full kitchen.The food, cleanliness, staff, fire, FREE DINNER, location to Airport and freeways, etc. I could go on but instead will say.. Just go. You won't regret it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r246968806-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246968806</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>You get more than you pay for</t>
+  </si>
+  <si>
+    <t>We stayed here so we could get our daughter on an early flight.  Check in was great- it was cold and rainy and there was a crackling fire, our room was clean and the breakfast is awesome!  We will definitely be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Ado B, General Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here so we could get our daughter on an early flight.  Check in was great- it was cold and rainy and there was a crackling fire, our room was clean and the breakfast is awesome!  We will definitely be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r242572944-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242572944</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>This location is quite new. Very clean, modern and comfortable. Staff was friendly, welcoming and helpful. Very eager to please. Would highly recommend and will stay here again if in the area. All of our needs were met. Shuttle to airport, early breakfast, quiet, comfortable beds, laundry, workout room, everything a Staybridge should be. A++MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>This location is quite new. Very clean, modern and comfortable. Staff was friendly, welcoming and helpful. Very eager to please. Would highly recommend and will stay here again if in the area. All of our needs were met. Shuttle to airport, early breakfast, quiet, comfortable beds, laundry, workout room, everything a Staybridge should be. A++More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r236118715-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236118715</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Wish we could have enjoyed it longer...</t>
+  </si>
+  <si>
+    <t>We chose to stay here as we were flying out on a flight that operates only once per week.  After making the reservation, we realized that we would need early check in based upon our flight into IAH.  I called the hotel and spoke with Pablo.  He was extremely helpful and kind.  He acknowledged my PC status and not only did he make sure we could check in early - he offered us an upgrade!  I cannot say enough how much we appreciate this.  When we arrived at the airport, the hotel shuttle picked us up with no problems and in a timely fashion.  The check in process was fantastic and the young lady even suggested we had a few minutes to grab some breakfast.  The room was spotlessly clean and the bed super comfortable.  We would come back here just to enjoy the incredible hospitality of the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>We chose to stay here as we were flying out on a flight that operates only once per week.  After making the reservation, we realized that we would need early check in based upon our flight into IAH.  I called the hotel and spoke with Pablo.  He was extremely helpful and kind.  He acknowledged my PC status and not only did he make sure we could check in early - he offered us an upgrade!  I cannot say enough how much we appreciate this.  When we arrived at the airport, the hotel shuttle picked us up with no problems and in a timely fashion.  The check in process was fantastic and the young lady even suggested we had a few minutes to grab some breakfast.  The room was spotlessly clean and the bed super comfortable.  We would come back here just to enjoy the incredible hospitality of the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r235212247-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235212247</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Awesome staff, nice hotel.</t>
+  </si>
+  <si>
+    <t>I stay here a lot. The staff is very helpful, and rooms are nice. It's not in the best area of town, but convenient for me as I work nearby. They do have a free meal and drinks three days a week , in the evening, can't complain too much because it's free, but the food hasn't been good lately. Only other thing is I wish they could start the free breakfast at 530am because I never get to enjoy that, lol, I leave too early. All in all a good hotel!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r216714039-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216714039</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>One  of the best I have ever stay</t>
+  </si>
+  <si>
+    <t>Well equipped and large room.  Complete kitchen from full size frig. to forks and knives.  Lights all over,  nice  and large TV.   Same with the desk, bath room, bad, extra sofa,  everything.Breakfast was grate.   Price (for the weekend days) was about 100$ (includes tax).The location is right on the highway 8  (not as it show on the map).</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r214780739-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214780739</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Stayed for one night. This was definetly better hotel than we were expecting. Quite modern and large, clean rooms. If you wan't to avoid worn, old hotels, this mgiht be a good choice. The location is not the best but for the price and great rooms it is a very good choice.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r207657703-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207657703</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Great time in Houston</t>
+  </si>
+  <si>
+    <t>This hotel was by far one of the nicest.  The food was great (they even have a Texas waffle maker), the staff very friendly and the grounds very clean.  Easy on and off the highway for local siteseeing.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was by far one of the nicest.  The food was great (they even have a Texas waffle maker), the staff very friendly and the grounds very clean.  Easy on and off the highway for local siteseeing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r206381444-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206381444</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Overnight Stay for Houston Airport -Value for money</t>
+  </si>
+  <si>
+    <t>I booked a last minute stay at this hotel, to catch an early morning flight out of the Houston Airport.
+Here are the highlights:
+1. The checkin was smooth (it was late at night, we were the only guests checking in). We had reserved the standard room. We got a King Size bed, which was great. As with all IHG properties, the pillows were comfortable and the room very clean, so no complaints there. The room size however was really small. Staybridge and Candlewood being in the same ranking category, I was a little surprised with the room size. However, since my stay was just for the night, it wasn't a deal breaker for me. I got a GREAT rate, so I wasn't complaining.
+2. it is a 10 minute drive to the airport. So if you looking for a place close to the airport, without paying a LOOOOTTTT of money, this is the place.. there were other hotels which were situated closer to the airport and might have saved another 5 minutes but were costing way more.. so this was just perfect..
+3. For the first time I think I did not like the attitude of an IHG staff member.. Our booking included the breakfast, but we were leaving too early to get breakfast. The check in lady very nicely told us that when we leave in the morning, the breakfast wouldn't have been served. Which was fine. She...I booked a last minute stay at this hotel, to catch an early morning flight out of the Houston Airport.Here are the highlights:1. The checkin was smooth (it was late at night, we were the only guests checking in). We had reserved the standard room. We got a King Size bed, which was great. As with all IHG properties, the pillows were comfortable and the room very clean, so no complaints there. The room size however was really small. Staybridge and Candlewood being in the same ranking category, I was a little surprised with the room size. However, since my stay was just for the night, it wasn't a deal breaker for me. I got a GREAT rate, so I wasn't complaining.2. it is a 10 minute drive to the airport. So if you looking for a place close to the airport, without paying a LOOOOTTTT of money, this is the place.. there were other hotels which were situated closer to the airport and might have saved another 5 minutes but were costing way more.. so this was just perfect..3. For the first time I think I did not like the attitude of an IHG staff member.. Our booking included the breakfast, but we were leaving too early to get breakfast. The check in lady very nicely told us that when we leave in the morning, the breakfast wouldn't have been served. Which was fine. She told us to speak to the desk person in the morning, and she would help us with some fruits/yogurt on our way out, which we thought was very sweet. Come morning, we were leaving and as luck would have it, my wife was starving, so she went to the desk agent and asked if she could grab some yogurt or a fruit from the breakfast room and tad came the firm response of "NO"..!! My wife was fairly taken back both with the refusal and the tone of the refusal.All in all, it's a nice hotel and we wouldn't mind staying here again, if it were for the same purpose as this time.. for anything of a longer stay though, I would choose another place..MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a last minute stay at this hotel, to catch an early morning flight out of the Houston Airport.
+Here are the highlights:
+1. The checkin was smooth (it was late at night, we were the only guests checking in). We had reserved the standard room. We got a King Size bed, which was great. As with all IHG properties, the pillows were comfortable and the room very clean, so no complaints there. The room size however was really small. Staybridge and Candlewood being in the same ranking category, I was a little surprised with the room size. However, since my stay was just for the night, it wasn't a deal breaker for me. I got a GREAT rate, so I wasn't complaining.
+2. it is a 10 minute drive to the airport. So if you looking for a place close to the airport, without paying a LOOOOTTTT of money, this is the place.. there were other hotels which were situated closer to the airport and might have saved another 5 minutes but were costing way more.. so this was just perfect..
+3. For the first time I think I did not like the attitude of an IHG staff member.. Our booking included the breakfast, but we were leaving too early to get breakfast. The check in lady very nicely told us that when we leave in the morning, the breakfast wouldn't have been served. Which was fine. She...I booked a last minute stay at this hotel, to catch an early morning flight out of the Houston Airport.Here are the highlights:1. The checkin was smooth (it was late at night, we were the only guests checking in). We had reserved the standard room. We got a King Size bed, which was great. As with all IHG properties, the pillows were comfortable and the room very clean, so no complaints there. The room size however was really small. Staybridge and Candlewood being in the same ranking category, I was a little surprised with the room size. However, since my stay was just for the night, it wasn't a deal breaker for me. I got a GREAT rate, so I wasn't complaining.2. it is a 10 minute drive to the airport. So if you looking for a place close to the airport, without paying a LOOOOTTTT of money, this is the place.. there were other hotels which were situated closer to the airport and might have saved another 5 minutes but were costing way more.. so this was just perfect..3. For the first time I think I did not like the attitude of an IHG staff member.. Our booking included the breakfast, but we were leaving too early to get breakfast. The check in lady very nicely told us that when we leave in the morning, the breakfast wouldn't have been served. Which was fine. She told us to speak to the desk person in the morning, and she would help us with some fruits/yogurt on our way out, which we thought was very sweet. Come morning, we were leaving and as luck would have it, my wife was starving, so she went to the desk agent and asked if she could grab some yogurt or a fruit from the breakfast room and tad came the firm response of "NO"..!! My wife was fairly taken back both with the refusal and the tone of the refusal.All in all, it's a nice hotel and we wouldn't mind staying here again, if it were for the same purpose as this time.. for anything of a longer stay though, I would choose another place..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r206171080-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206171080</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>A really nice hotel...</t>
+  </si>
+  <si>
+    <t>My family and I stayed 3 nights here,  and I absolutely loved it.  We had a full kitchen with a bar with stools,   two beds in the bedroom,  and a separate living room section. It's a convenient area you can jump right on the freeway. There's stores,  shopping not too far away. I will be staying here again when I visit in October for a wedding. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My family and I stayed 3 nights here,  and I absolutely loved it.  We had a full kitchen with a bar with stools,   two beds in the bedroom,  and a separate living room section. It's a convenient area you can jump right on the freeway. There's stores,  shopping not too far away. I will be staying here again when I visit in October for a wedding. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r202810012-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202810012</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Had to Pay for a Taxi to the Airport</t>
+  </si>
+  <si>
+    <t>I have stayed at the Staybridge in April and July 2013 and we have booked it for customers.  I checked in and spoke with the front desk twice about shuttle service because I wanted to return my rental car early to save time for my 8 AM flight.  No mention that the shuttle starts at 7:30 AM by front desk and I would not expect an airport hotel not to have shuttle for a 8 AM flight.I return my car and call for a pick up and how I discovered the by asking the driver on the way back to the hotel.  I was shocked that an airport hotel less than five miles from the airport does not have shuttle to for an 8 AM flight!  What the point of being an airport hotel.  No apology from the hotel and $20+ dollars for a taxi later I could have kept my rental car.  So I go back to the website to find the shuttle times and they are not posted.  I feel like shuttle hours for an airport hotel that are not what the competitors offers or outside what is normal should be posted and advertised.  I believe that they have been revised an added to the website.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at the Staybridge in April and July 2013 and we have booked it for customers.  I checked in and spoke with the front desk twice about shuttle service because I wanted to return my rental car early to save time for my 8 AM flight.  No mention that the shuttle starts at 7:30 AM by front desk and I would not expect an airport hotel not to have shuttle for a 8 AM flight.I return my car and call for a pick up and how I discovered the by asking the driver on the way back to the hotel.  I was shocked that an airport hotel less than five miles from the airport does not have shuttle to for an 8 AM flight!  What the point of being an airport hotel.  No apology from the hotel and $20+ dollars for a taxi later I could have kept my rental car.  So I go back to the website to find the shuttle times and they are not posted.  I feel like shuttle hours for an airport hotel that are not what the competitors offers or outside what is normal should be posted and advertised.  I believe that they have been revised an added to the website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r193306919-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193306919</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Got stuck in Houston during the ice storm. This place is great! Nice people, brand new facility. Close-ish to the airport with free shuttle, and a pretty good breakfast. Sorry i didnt get to be at the social. The chinese take away they recommended wasn't very good, though.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r189868174-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189868174</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>BILLING NIGHTMARE!!!!! BEWARE!!!!!</t>
+  </si>
+  <si>
+    <t>My trip was prepaid via Priceline, when I checked out the clerk supposedly accidentally credited my card 570.88 for the entire stay so another clerk said they would now have to charge me that 570.88 amount back to zero balance my account. I called the manager after 3 days when the charge posted to my card asking where was my supposedly issued account credit and was told to wait another 3-5 days as they are supposedly showing a credit in their system. I am now 7 days post check out with still no credit showing for the charge on my card. I called the manager twice this morning and she is not there so I had to finally dispute the charge through my credit card company. This trip already started of bad when I got there as Priceline had to call the hotel to place me there as my prior reservation at another property was mysteriously cancelled. I thought this hotel was nice and was happy before this mess but I would rather have stayed in a run down shack motel if they would have at least had their clerks trained to bill correctly. This has been a complete nightmare to top off the other personal issues I have been dealing with the first week of this year. I do not have time to be dealing with their mistakes and if you don't either I would suggest avoiding this property...My trip was prepaid via Priceline, when I checked out the clerk supposedly accidentally credited my card 570.88 for the entire stay so another clerk said they would now have to charge me that 570.88 amount back to zero balance my account. I called the manager after 3 days when the charge posted to my card asking where was my supposedly issued account credit and was told to wait another 3-5 days as they are supposedly showing a credit in their system. I am now 7 days post check out with still no credit showing for the charge on my card. I called the manager twice this morning and she is not there so I had to finally dispute the charge through my credit card company. This trip already started of bad when I got there as Priceline had to call the hotel to place me there as my prior reservation at another property was mysteriously cancelled. I thought this hotel was nice and was happy before this mess but I would rather have stayed in a run down shack motel if they would have at least had their clerks trained to bill correctly. This has been a complete nightmare to top off the other personal issues I have been dealing with the first week of this year. I do not have time to be dealing with their mistakes and if you don't either I would suggest avoiding this property at all cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>My trip was prepaid via Priceline, when I checked out the clerk supposedly accidentally credited my card 570.88 for the entire stay so another clerk said they would now have to charge me that 570.88 amount back to zero balance my account. I called the manager after 3 days when the charge posted to my card asking where was my supposedly issued account credit and was told to wait another 3-5 days as they are supposedly showing a credit in their system. I am now 7 days post check out with still no credit showing for the charge on my card. I called the manager twice this morning and she is not there so I had to finally dispute the charge through my credit card company. This trip already started of bad when I got there as Priceline had to call the hotel to place me there as my prior reservation at another property was mysteriously cancelled. I thought this hotel was nice and was happy before this mess but I would rather have stayed in a run down shack motel if they would have at least had their clerks trained to bill correctly. This has been a complete nightmare to top off the other personal issues I have been dealing with the first week of this year. I do not have time to be dealing with their mistakes and if you don't either I would suggest avoiding this property...My trip was prepaid via Priceline, when I checked out the clerk supposedly accidentally credited my card 570.88 for the entire stay so another clerk said they would now have to charge me that 570.88 amount back to zero balance my account. I called the manager after 3 days when the charge posted to my card asking where was my supposedly issued account credit and was told to wait another 3-5 days as they are supposedly showing a credit in their system. I am now 7 days post check out with still no credit showing for the charge on my card. I called the manager twice this morning and she is not there so I had to finally dispute the charge through my credit card company. This trip already started of bad when I got there as Priceline had to call the hotel to place me there as my prior reservation at another property was mysteriously cancelled. I thought this hotel was nice and was happy before this mess but I would rather have stayed in a run down shack motel if they would have at least had their clerks trained to bill correctly. This has been a complete nightmare to top off the other personal issues I have been dealing with the first week of this year. I do not have time to be dealing with their mistakes and if you don't either I would suggest avoiding this property at all cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r189613732-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189613732</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Fantastic a second time!</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here whilst in transit to Mexico and decided to stay again on our way home.  I contacted a few hotels near the airport and this was the only one that could and would accommodate us for a day as opposed to a night (thank you Mr Ado)!  We were also upgraded to a two bedroom room, which was great as we could both have our own room and bathroom.  The second room also had two double beds, so this room would be great for a family with a couple of kids.  We made use of the free breakfast, wifi and laundry...all fantastic features.  Again the shuttle back to the airport was handy too.  I would stay at this property again however I'm not sure when I will get back to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Ado B, Front Office Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here whilst in transit to Mexico and decided to stay again on our way home.  I contacted a few hotels near the airport and this was the only one that could and would accommodate us for a day as opposed to a night (thank you Mr Ado)!  We were also upgraded to a two bedroom room, which was great as we could both have our own room and bathroom.  The second room also had two double beds, so this room would be great for a family with a couple of kids.  We made use of the free breakfast, wifi and laundry...all fantastic features.  Again the shuttle back to the airport was handy too.  I would stay at this property again however I'm not sure when I will get back to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r187317662-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187317662</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Amazing commitment to service!</t>
+  </si>
+  <si>
+    <t>We booked a training and made a mistake on our end as to number of attendees. The hotel management and staff went far above service expectations by working diligently to obtain additional tables, chairs and various other accommodations to assure the training was successful and attendees were satisfied and comfortable. I haven't experienced this kind of commitment to service in a long time and can only express gratitude to this kind of standard of excellence. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2013</t>
+  </si>
+  <si>
+    <t>We booked a training and made a mistake on our end as to number of attendees. The hotel management and staff went far above service expectations by working diligently to obtain additional tables, chairs and various other accommodations to assure the training was successful and attendees were satisfied and comfortable. I haven't experienced this kind of commitment to service in a long time and can only express gratitude to this kind of standard of excellence. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r186893775-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186893775</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>Slightly Disappointed</t>
+  </si>
+  <si>
+    <t>We are regular users of Staybridge Suites but were a bit disappointed with this property. I always look for this brand and it appeared to be a good option for flying into IAH. Very easy to find from the rental car centre but driving towards the hotel we were hoping that the area would improve. The hotel is a bit isolated with nothing obvious in the immediate vicinity apart from a filling station and Burger King. To reach the hotel while traveling westbound, one appears to have to turn into said filling station.Staff was friendly at reception. Unfortunately there was a burst water pipe nearby and we had no water for a few hours. Rooms were of the usual high standard and breakfast was good.Unfortunately the corridors and public places were dirty. I know that they only do housekeeping on request on weekends, but I do think that it is important to keep these areas clean and perform a check. This is the first time that I have seen this in one of these properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We are regular users of Staybridge Suites but were a bit disappointed with this property. I always look for this brand and it appeared to be a good option for flying into IAH. Very easy to find from the rental car centre but driving towards the hotel we were hoping that the area would improve. The hotel is a bit isolated with nothing obvious in the immediate vicinity apart from a filling station and Burger King. To reach the hotel while traveling westbound, one appears to have to turn into said filling station.Staff was friendly at reception. Unfortunately there was a burst water pipe nearby and we had no water for a few hours. Rooms were of the usual high standard and breakfast was good.Unfortunately the corridors and public places were dirty. I know that they only do housekeeping on request on weekends, but I do think that it is important to keep these areas clean and perform a check. This is the first time that I have seen this in one of these properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r181725472-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181725472</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Probably the nicest IAH Hotel - it is so nice, you want to move in!</t>
+  </si>
+  <si>
+    <t>Just what the title says. Prompt airport shuttle, outdoor pool, free laundry, high-end workout room (even with a scale, so you can weigh your luggage). Rooms really rival a high-end apartment. Full kitchen, well stocked, even with a dishwasher (so you know the dishes are REALLY clean). Very comfy bed, two easy-to-use TVs. Comfy furniture and there is truly room to stretch out. If you have not stayed at a Staybridge before, I highly recommend it. This is a great, new 2012 build property. It rivals some of the best full-scale Hiltons, JWs, and Crowne Plazas around. Don't let the price fool you, this is truly a high-end, world-class property. Now, for food: some of the best around; excellent breakfast spread with many, many options including bagels, yogurt, fresh fruit, waffles, sausage, even fresh lunch meats and sliced tomatoes (to pack a lunch). Staybridges offer a Manager's Reception Mon thru Thurs with full dinner-quality meals. All-in-all, the nicest IAH area hotel that is actually a darn good deal.  Huey (manager) truly works hard and professionally for his property and guests. IHG  must be proud to have him and this stellar property in their portfolio.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Ado B, General Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Just what the title says. Prompt airport shuttle, outdoor pool, free laundry, high-end workout room (even with a scale, so you can weigh your luggage). Rooms really rival a high-end apartment. Full kitchen, well stocked, even with a dishwasher (so you know the dishes are REALLY clean). Very comfy bed, two easy-to-use TVs. Comfy furniture and there is truly room to stretch out. If you have not stayed at a Staybridge before, I highly recommend it. This is a great, new 2012 build property. It rivals some of the best full-scale Hiltons, JWs, and Crowne Plazas around. Don't let the price fool you, this is truly a high-end, world-class property. Now, for food: some of the best around; excellent breakfast spread with many, many options including bagels, yogurt, fresh fruit, waffles, sausage, even fresh lunch meats and sliced tomatoes (to pack a lunch). Staybridges offer a Manager's Reception Mon thru Thurs with full dinner-quality meals. All-in-all, the nicest IAH area hotel that is actually a darn good deal.  Huey (manager) truly works hard and professionally for his property and guests. IHG  must be proud to have him and this stellar property in their portfolio.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r176845430-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176845430</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>So nice you want to move in</t>
+  </si>
+  <si>
+    <t>I need to rethink my hotel of choice after this stay. By far the most beautiful, comfortable, and warmest room to date of all travels. Add to that Laura at the main desk was a gem. The pictures uploaded should give you an idea. I will look for this chain from now on. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>I need to rethink my hotel of choice after this stay. By far the most beautiful, comfortable, and warmest room to date of all travels. Add to that Laura at the main desk was a gem. The pictures uploaded should give you an idea. I will look for this chain from now on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r176189055-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176189055</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>"Deep in the Heart of Texas"</t>
+  </si>
+  <si>
+    <t>My experience in Texas was Great, mainly because of my stay at The Staybridge Suites IAH.The Front Desk staff was very helpful and friendly, especially Jasmine and Vanessa. Fantastic food choices during the week and great setting outside by the pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My experience in Texas was Great, mainly because of my stay at The Staybridge Suites IAH.The Front Desk staff was very helpful and friendly, especially Jasmine and Vanessa. Fantastic food choices during the week and great setting outside by the pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r170508357-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170508357</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable hotel!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel after a very long flight from Dubai before continuing on to Mexico the next day.  It isn't around the same area as the other hotels close to the airport, and our cab driver had trouble finding it, but we got there perfectly fine.  Check in was a breeze and we were also informed of a complimentary dinner available which we took advantage of.  It was fairly basic, just the makings for some fajitas, but there was also beer, wine and soft drinks available and dinner was a great alternative to trying to find somewhere else to eat (particularly with no car, which could be difficult).  Our room was very comfortable, with a full kitchen and living room, and separate bedroom with 2 huge and soft beds.  We slept extremely well.  It was also a nice change to see a huge shower as opposed to a shower/bathtub combination.  This hotel has a pool and BBQ area, as well as a business centre and small gym, and fast, free wi-fi.  We had breakfast the next morning, which included toast, fruit, yoghurt and make your own waffles.  Check out was efficient and we used the complimentary shuttle to the airport.  Staff were friendly and accommodating.  Would I stay here again?  Absolutely.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel after a very long flight from Dubai before continuing on to Mexico the next day.  It isn't around the same area as the other hotels close to the airport, and our cab driver had trouble finding it, but we got there perfectly fine.  Check in was a breeze and we were also informed of a complimentary dinner available which we took advantage of.  It was fairly basic, just the makings for some fajitas, but there was also beer, wine and soft drinks available and dinner was a great alternative to trying to find somewhere else to eat (particularly with no car, which could be difficult).  Our room was very comfortable, with a full kitchen and living room, and separate bedroom with 2 huge and soft beds.  We slept extremely well.  It was also a nice change to see a huge shower as opposed to a shower/bathtub combination.  This hotel has a pool and BBQ area, as well as a business centre and small gym, and fast, free wi-fi.  We had breakfast the next morning, which included toast, fruit, yoghurt and make your own waffles.  Check out was efficient and we used the complimentary shuttle to the airport.  Staff were friendly and accommodating.  Would I stay here again?  Absolutely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r167804885-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167804885</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel and enjoyed it. It’s very nice, clean and well taken care of. We will stay there again. We stayed at this hotel and enjoyed it. It’s very nice, clean and well taken care of. We will stay there again. We stayed at this hotel and enjoyed it. It’s very nice, clean and well taken care of. We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel and enjoyed it. It’s very nice, clean and well taken care of. We will stay there again. We stayed at this hotel and enjoyed it. It’s very nice, clean and well taken care of. We will stay there again. We stayed at this hotel and enjoyed it. It’s very nice, clean and well taken care of. We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r163978296-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163978296</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>First time in Houston - great introduction</t>
+  </si>
+  <si>
+    <t>We stayed at Staybridge Suites at the beginning of June. We chose it mainly because it was near the airport, it was new, and it had a pool. We just needed a place for one night until our condo rental was available. After checking in we were almost sorry we were moving on the next day. The hotel is so very clean and the staff were terrific. 
+We checked in with Vanessa and she was so helpful. Our room wasn't ready (we were very early) so she gave us directions to a local Pappas Seafood (which was also amazing), called us when the room was ready, and then gave us a gift bag for being (new) IHG members.  She told us we could call her if we needed anything. We unpacked a bit and then spent the afternoon by the pool. There was no one else around so it was nice to have it all to ourselves. 
+We had a ton of leftovers from lunch so we stayed in our room for dinner and just watched tv and planned the next days outing. The next morning we had breakfast downstairs and the selection was excellent. Omelettes with several toppings, muffins, cereal, so much more I can't remember. 
+I would stay there again in a heartbeat. Yes, it is a bit difficult to find, but not impossible. (When your GPS tells you to turn at the next right, it means turn...We stayed at Staybridge Suites at the beginning of June. We chose it mainly because it was near the airport, it was new, and it had a pool. We just needed a place for one night until our condo rental was available. After checking in we were almost sorry we were moving on the next day. The hotel is so very clean and the staff were terrific. We checked in with Vanessa and she was so helpful. Our room wasn't ready (we were very early) so she gave us directions to a local Pappas Seafood (which was also amazing), called us when the room was ready, and then gave us a gift bag for being (new) IHG members.  She told us we could call her if we needed anything. We unpacked a bit and then spent the afternoon by the pool. There was no one else around so it was nice to have it all to ourselves. We had a ton of leftovers from lunch so we stayed in our room for dinner and just watched tv and planned the next days outing. The next morning we had breakfast downstairs and the selection was excellent. Omelettes with several toppings, muffins, cereal, so much more I can't remember. I would stay there again in a heartbeat. Yes, it is a bit difficult to find, but not impossible. (When your GPS tells you to turn at the next right, it means turn into the gas station parking lot by Burger King. Weird that a road runs through the gas station property.) The only thing I didn't like was that the hotel had hard water so my hair felt horrible, but that's not something that would make or break my decision to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vanessa L, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded October 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at Staybridge Suites at the beginning of June. We chose it mainly because it was near the airport, it was new, and it had a pool. We just needed a place for one night until our condo rental was available. After checking in we were almost sorry we were moving on the next day. The hotel is so very clean and the staff were terrific. 
+We checked in with Vanessa and she was so helpful. Our room wasn't ready (we were very early) so she gave us directions to a local Pappas Seafood (which was also amazing), called us when the room was ready, and then gave us a gift bag for being (new) IHG members.  She told us we could call her if we needed anything. We unpacked a bit and then spent the afternoon by the pool. There was no one else around so it was nice to have it all to ourselves. 
+We had a ton of leftovers from lunch so we stayed in our room for dinner and just watched tv and planned the next days outing. The next morning we had breakfast downstairs and the selection was excellent. Omelettes with several toppings, muffins, cereal, so much more I can't remember. 
+I would stay there again in a heartbeat. Yes, it is a bit difficult to find, but not impossible. (When your GPS tells you to turn at the next right, it means turn...We stayed at Staybridge Suites at the beginning of June. We chose it mainly because it was near the airport, it was new, and it had a pool. We just needed a place for one night until our condo rental was available. After checking in we were almost sorry we were moving on the next day. The hotel is so very clean and the staff were terrific. We checked in with Vanessa and she was so helpful. Our room wasn't ready (we were very early) so she gave us directions to a local Pappas Seafood (which was also amazing), called us when the room was ready, and then gave us a gift bag for being (new) IHG members.  She told us we could call her if we needed anything. We unpacked a bit and then spent the afternoon by the pool. There was no one else around so it was nice to have it all to ourselves. We had a ton of leftovers from lunch so we stayed in our room for dinner and just watched tv and planned the next days outing. The next morning we had breakfast downstairs and the selection was excellent. Omelettes with several toppings, muffins, cereal, so much more I can't remember. I would stay there again in a heartbeat. Yes, it is a bit difficult to find, but not impossible. (When your GPS tells you to turn at the next right, it means turn into the gas station parking lot by Burger King. Weird that a road runs through the gas station property.) The only thing I didn't like was that the hotel had hard water so my hair felt horrible, but that's not something that would make or break my decision to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r163676544-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163676544</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, nice decor, super clean</t>
+  </si>
+  <si>
+    <t>Love it. Breakfast is great. Hotel is very clean and spacious. Has 2 TVs and clean bathroom. WIll be back. Location is hard to find, exit from highway was not clear and get lost to get there at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Love it. Breakfast is great. Hotel is very clean and spacious. Has 2 TVs and clean bathroom. WIll be back. Location is hard to find, exit from highway was not clear and get lost to get there at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r158528224-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158528224</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Modern and spacious suites and great location near IAH</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Staybridge Suites in Houston, right near Intercontinental Airport.  The airport is about 3 miles from the airport, and made a great place to stay before a very early morning flight.  Staybridge is my preferred chain, and this appeared to be a very new property.  The decor is very modern and fits with most of their other properties.  I had a very nice 1 bedroom king suite that I found to be very comfortable.  I think Staybridge has the best beds, although this one did not have the best pillows.  The Wi-Fi was free and super fast, which is always appreciated, and there are plenty of outlets for plugging in gadgets.  My only complaint with the room is the lighting.  The lighting in the main sitting room was way to bright and harsh, and left the room with a weird "hospital" lighting feeling.  One thing to be aware of is although the location is great for the airport, there are no restaurants right nearby except for Burger King.   I drove to a pub at the Holiday Inn a short drive down the road, and they gave a 15% discount off the bill for Stayrbidge guests as well as the Holiday Inn guests.  I will stay here again the next time I am in Houston and continue to choose Staybridge Suites as my hotel chain of choice!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Ado B, Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded April 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Staybridge Suites in Houston, right near Intercontinental Airport.  The airport is about 3 miles from the airport, and made a great place to stay before a very early morning flight.  Staybridge is my preferred chain, and this appeared to be a very new property.  The decor is very modern and fits with most of their other properties.  I had a very nice 1 bedroom king suite that I found to be very comfortable.  I think Staybridge has the best beds, although this one did not have the best pillows.  The Wi-Fi was free and super fast, which is always appreciated, and there are plenty of outlets for plugging in gadgets.  My only complaint with the room is the lighting.  The lighting in the main sitting room was way to bright and harsh, and left the room with a weird "hospital" lighting feeling.  One thing to be aware of is although the location is great for the airport, there are no restaurants right nearby except for Burger King.   I drove to a pub at the Holiday Inn a short drive down the road, and they gave a 15% discount off the bill for Stayrbidge guests as well as the Holiday Inn guests.  I will stay here again the next time I am in Houston and continue to choose Staybridge Suites as my hotel chain of choice!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r158076047-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158076047</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>It was everything we needed and we all loved it!</t>
+  </si>
+  <si>
+    <t>Here was my want list: Very clean rooms, comortable beds, 3 beds so we all had our own, a kitchen or at the very least a full size fridge(my son has celiac disease), a pool, and a thermostat that controls temps and not those yucky window/wall units. Ok, I got everyone of these and bonus was that it was a 2 bdrm unit so the kids had their own beds in their own room! Woohoo! That room had a tv, the living room was very comfy and it had it's own TV and the other room had a king size bed with it's own tv. Each room also having a bathroom...another bonus! The beds were super comfortable and very clean...we all had a hard time leaving them. The room #400 smelled new when we opened the door. It was really a fantastic stay. There were a few negatives, not enough to affect my rating though..1) Pool was not heated and it was cold...no hot tub either 2) We were on the top floor(4th) and we could hear the planes heading to the very nearby airport. It didn't bother me at all but it may bother someone else. 3) There was some construction going on next to the hotel and close to the pool area...it was loud and started early. Again, it wasn't something that bothered me but it may be the thing that could ruin someone elses trip. We didn't...Here was my want list: Very clean rooms, comortable beds, 3 beds so we all had our own, a kitchen or at the very least a full size fridge(my son has celiac disease), a pool, and a thermostat that controls temps and not those yucky window/wall units. Ok, I got everyone of these and bonus was that it was a 2 bdrm unit so the kids had their own beds in their own room! Woohoo! That room had a tv, the living room was very comfy and it had it's own TV and the other room had a king size bed with it's own tv. Each room also having a bathroom...another bonus! The beds were super comfortable and very clean...we all had a hard time leaving them. The room #400 smelled new when we opened the door. It was really a fantastic stay. There were a few negatives, not enough to affect my rating though..1) Pool was not heated and it was cold...no hot tub either 2) We were on the top floor(4th) and we could hear the planes heading to the very nearby airport. It didn't bother me at all but it may bother someone else. 3) There was some construction going on next to the hotel and close to the pool area...it was loud and started early. Again, it wasn't something that bothered me but it may be the thing that could ruin someone elses trip. We didn't participate in the breakfast or the weekday dinners but I did see them and they looked fantastic. One night it was pulled pork sandwiches and lots of fresh lettuce for salads. They had beer and wine. Around the clock there was always fresh brewed Wolfgang Puck coffee...light, med and dark roast and it was very good. We didn't want to leave. No one bothered us and I couldn't hear any hallway or other room noise at any point. Absolutely loved it and would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ado B, General Manager at Staybridge Suites Houston IAH - Beltway 8, responded to this reviewResponded April 25, 2013</t>
+  </si>
+  <si>
+    <t>Here was my want list: Very clean rooms, comortable beds, 3 beds so we all had our own, a kitchen or at the very least a full size fridge(my son has celiac disease), a pool, and a thermostat that controls temps and not those yucky window/wall units. Ok, I got everyone of these and bonus was that it was a 2 bdrm unit so the kids had their own beds in their own room! Woohoo! That room had a tv, the living room was very comfy and it had it's own TV and the other room had a king size bed with it's own tv. Each room also having a bathroom...another bonus! The beds were super comfortable and very clean...we all had a hard time leaving them. The room #400 smelled new when we opened the door. It was really a fantastic stay. There were a few negatives, not enough to affect my rating though..1) Pool was not heated and it was cold...no hot tub either 2) We were on the top floor(4th) and we could hear the planes heading to the very nearby airport. It didn't bother me at all but it may bother someone else. 3) There was some construction going on next to the hotel and close to the pool area...it was loud and started early. Again, it wasn't something that bothered me but it may be the thing that could ruin someone elses trip. We didn't...Here was my want list: Very clean rooms, comortable beds, 3 beds so we all had our own, a kitchen or at the very least a full size fridge(my son has celiac disease), a pool, and a thermostat that controls temps and not those yucky window/wall units. Ok, I got everyone of these and bonus was that it was a 2 bdrm unit so the kids had their own beds in their own room! Woohoo! That room had a tv, the living room was very comfy and it had it's own TV and the other room had a king size bed with it's own tv. Each room also having a bathroom...another bonus! The beds were super comfortable and very clean...we all had a hard time leaving them. The room #400 smelled new when we opened the door. It was really a fantastic stay. There were a few negatives, not enough to affect my rating though..1) Pool was not heated and it was cold...no hot tub either 2) We were on the top floor(4th) and we could hear the planes heading to the very nearby airport. It didn't bother me at all but it may bother someone else. 3) There was some construction going on next to the hotel and close to the pool area...it was loud and started early. Again, it wasn't something that bothered me but it may be the thing that could ruin someone elses trip. We didn't participate in the breakfast or the weekday dinners but I did see them and they looked fantastic. One night it was pulled pork sandwiches and lots of fresh lettuce for salads. They had beer and wine. Around the clock there was always fresh brewed Wolfgang Puck coffee...light, med and dark roast and it was very good. We didn't want to leave. No one bothered us and I couldn't hear any hallway or other room noise at any point. Absolutely loved it and would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r157554672-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157554672</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel close to the Houston Bush Intercontential airport. It was completed Aug 2012, and it smells new. Everything is so modern, room is very roomy, common area is first grade in its class. Breakfast was very good, and offer lots of choices. The swimming pool is a good place to spend the afternoon.They provide storage for long haul, great for people with lots of stuff.The neighbourhood is still under construction. Gas station and restaurant is nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new hotel close to the Houston Bush Intercontential airport. It was completed Aug 2012, and it smells new. Everything is so modern, room is very roomy, common area is first grade in its class. Breakfast was very good, and offer lots of choices. The swimming pool is a good place to spend the afternoon.They provide storage for long haul, great for people with lots of stuff.The neighbourhood is still under construction. Gas station and restaurant is nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r154978987-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154978987</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, not far from the Shops...</t>
+  </si>
+  <si>
+    <t>I have booked this hotel in June 2012 as a part of my Around the World Trip and yet again my choice was due to Hotel having a nice swimming pool, spacious rooms..... We have ventured walking outside the Hotel and although it took us around 20 minutes -we have found an excellent Sports bar/restarant.... I would recommend this hotel for a business trip and/or a romantic getaway. You do not have to have a car as the Hotel is not far from the Airport [by taxi]MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I have booked this hotel in June 2012 as a part of my Around the World Trip and yet again my choice was due to Hotel having a nice swimming pool, spacious rooms..... We have ventured walking outside the Hotel and although it took us around 20 minutes -we have found an excellent Sports bar/restarant.... I would recommend this hotel for a business trip and/or a romantic getaway. You do not have to have a car as the Hotel is not far from the Airport [by taxi]More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r154570111-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154570111</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>LOVELY NEW HOTEL</t>
+  </si>
+  <si>
+    <t>This was an overnight stop on our way to Fort Lauderdale. Our flight did not arrive till after midnight &amp; it was too late to access their complimentary shuttle from the airport. We had to take a taxi for $25. We were greeted with a gift bag containing 2 bottles of water &amp; some snack bars &amp; candy!! This is a lovely perk of being an IHG member, which is a FREE membership &amp; entitles you to points &amp; bonuses of staying at hundreds of hotels in the IHG chain. Our room was lovely &amp; spacious, with a walk-in shower &amp; seperate area for the sink. Also had a full kitchen. I believe the hotel has a pool &amp; fitness room, but we didn't have any time for that, so it's not something that I checked. The hotel is only 9 mths old &amp; is spotless. The bed &amp; linens were wonderful &amp; very comfortable.  We did not want to leave that bed early the next morning for our flight lol !! Breakfast is included in the price &amp; is a lovely both hot &amp; cold buffet.  The staff are very concientious in refilling the buffet. An added benefit is that you can take your breakfast to go, if you are in a hurry.  Staff will provide you with a bag to do this. The Shuttle driver did not show up for work &amp; the receptionist was very concerned for...This was an overnight stop on our way to Fort Lauderdale. Our flight did not arrive till after midnight &amp; it was too late to access their complimentary shuttle from the airport. We had to take a taxi for $25. We were greeted with a gift bag containing 2 bottles of water &amp; some snack bars &amp; candy!! This is a lovely perk of being an IHG member, which is a FREE membership &amp; entitles you to points &amp; bonuses of staying at hundreds of hotels in the IHG chain. Our room was lovely &amp; spacious, with a walk-in shower &amp; seperate area for the sink. Also had a full kitchen. I believe the hotel has a pool &amp; fitness room, but we didn't have any time for that, so it's not something that I checked. The hotel is only 9 mths old &amp; is spotless. The bed &amp; linens were wonderful &amp; very comfortable.  We did not want to leave that bed early the next morning for our flight lol !! Breakfast is included in the price &amp; is a lovely both hot &amp; cold buffet.  The staff are very concientious in refilling the buffet. An added benefit is that you can take your breakfast to go, if you are in a hurry.  Staff will provide you with a bag to do this. The Shuttle driver did not show up for work &amp; the receptionist was very concerned for our stay to be completely enjoyable.  She called for a taxi &amp; the hotel paid for it.  I also overheard her do this for another couple also. We were very impressed.  This was our first time in Houston &amp; although we only saw it from a taxi, if this hotel is anything to go by, I would like to visit Houston again in the future &amp; would definitely stay at this hotel, if I do.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This was an overnight stop on our way to Fort Lauderdale. Our flight did not arrive till after midnight &amp; it was too late to access their complimentary shuttle from the airport. We had to take a taxi for $25. We were greeted with a gift bag containing 2 bottles of water &amp; some snack bars &amp; candy!! This is a lovely perk of being an IHG member, which is a FREE membership &amp; entitles you to points &amp; bonuses of staying at hundreds of hotels in the IHG chain. Our room was lovely &amp; spacious, with a walk-in shower &amp; seperate area for the sink. Also had a full kitchen. I believe the hotel has a pool &amp; fitness room, but we didn't have any time for that, so it's not something that I checked. The hotel is only 9 mths old &amp; is spotless. The bed &amp; linens were wonderful &amp; very comfortable.  We did not want to leave that bed early the next morning for our flight lol !! Breakfast is included in the price &amp; is a lovely both hot &amp; cold buffet.  The staff are very concientious in refilling the buffet. An added benefit is that you can take your breakfast to go, if you are in a hurry.  Staff will provide you with a bag to do this. The Shuttle driver did not show up for work &amp; the receptionist was very concerned for...This was an overnight stop on our way to Fort Lauderdale. Our flight did not arrive till after midnight &amp; it was too late to access their complimentary shuttle from the airport. We had to take a taxi for $25. We were greeted with a gift bag containing 2 bottles of water &amp; some snack bars &amp; candy!! This is a lovely perk of being an IHG member, which is a FREE membership &amp; entitles you to points &amp; bonuses of staying at hundreds of hotels in the IHG chain. Our room was lovely &amp; spacious, with a walk-in shower &amp; seperate area for the sink. Also had a full kitchen. I believe the hotel has a pool &amp; fitness room, but we didn't have any time for that, so it's not something that I checked. The hotel is only 9 mths old &amp; is spotless. The bed &amp; linens were wonderful &amp; very comfortable.  We did not want to leave that bed early the next morning for our flight lol !! Breakfast is included in the price &amp; is a lovely both hot &amp; cold buffet.  The staff are very concientious in refilling the buffet. An added benefit is that you can take your breakfast to go, if you are in a hurry.  Staff will provide you with a bag to do this. The Shuttle driver did not show up for work &amp; the receptionist was very concerned for our stay to be completely enjoyable.  She called for a taxi &amp; the hotel paid for it.  I also overheard her do this for another couple also. We were very impressed.  This was our first time in Houston &amp; although we only saw it from a taxi, if this hotel is anything to go by, I would like to visit Houston again in the future &amp; would definitely stay at this hotel, if I do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r153237872-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153237872</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT HOTEL NEAR IAH</t>
+  </si>
+  <si>
+    <t>This is a great hotel close to Bush Intercontinental airport with a free shuttle. Spacious rooms with sitting area and kitchen, great after a long flight. Very friendly staff and good breakfast. I would highly recommend this hotel for someone wanting to stay close to the airport. Ado, the GM was very hospitable.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r151746578-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151746578</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Houston was our transfer point heading back to Toronto Canada from a Mexican vacation. The timing was such that our connecting flight was cancelled due to winter storm Nemo. We were grounded in Houston for 3 days.  The staff at Staybridge were friendly and very helpful. The Inn is clean, fresh and comfortable.  The included amenities are amazing!  Full breakfast and Tuesday through Thursday a light dinner is provided including beer and wine!  Complimentary laundry facilities, a clean fitness are and free WiFi.  The rooms have a small modern kitchen, good size tv and comfortable bed and pillows.  Our trip interruption was inconvenient but staying at Staybridge Suites made it as comfortable as possible. MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston was our transfer point heading back to Toronto Canada from a Mexican vacation. The timing was such that our connecting flight was cancelled due to winter storm Nemo. We were grounded in Houston for 3 days.  The staff at Staybridge were friendly and very helpful. The Inn is clean, fresh and comfortable.  The included amenities are amazing!  Full breakfast and Tuesday through Thursday a light dinner is provided including beer and wine!  Complimentary laundry facilities, a clean fitness are and free WiFi.  The rooms have a small modern kitchen, good size tv and comfortable bed and pillows.  Our trip interruption was inconvenient but staying at Staybridge Suites made it as comfortable as possible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r149897258-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149897258</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Very pleased with my stay here</t>
+  </si>
+  <si>
+    <t>This hotel looks and smells very clean. Did not encounter a single feature that did not work, which was a pleasant surprise! Fitness center has multiple types of cardio machines, and the hotel even puts on a social night with dinner throughout the middle of each week. I will definitely stay here again in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d2712053-r149003086-Staybridge_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149003086</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Internet</t>
+  </si>
+  <si>
+    <t>Close to IAH and downtown.  Internet is 5ms pingtime with 28 Mbits down and 11 Mbits up (per second).  Very clean and brand new.  Staff is excellent.  I have stayed here a few times and it is always great.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2411,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2443,5475 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>259</v>
+      </c>
+      <c r="X30" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>259</v>
+      </c>
+      <c r="X31" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>259</v>
+      </c>
+      <c r="X32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>297</v>
+      </c>
+      <c r="X36" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" t="s">
+        <v>302</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>305</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>306</v>
+      </c>
+      <c r="X37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>314</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>306</v>
+      </c>
+      <c r="X38" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>306</v>
+      </c>
+      <c r="X39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>323</v>
+      </c>
+      <c r="J40" t="s">
+        <v>324</v>
+      </c>
+      <c r="K40" t="s">
+        <v>325</v>
+      </c>
+      <c r="L40" t="s">
+        <v>326</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>327</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>306</v>
+      </c>
+      <c r="X40" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>330</v>
+      </c>
+      <c r="J41" t="s">
+        <v>331</v>
+      </c>
+      <c r="K41" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" t="s">
+        <v>333</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>334</v>
+      </c>
+      <c r="X41" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
+      <c r="K42" t="s">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>342</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>334</v>
+      </c>
+      <c r="X42" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>349</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>334</v>
+      </c>
+      <c r="X43" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>357</v>
+      </c>
+      <c r="X44" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>356</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>357</v>
+      </c>
+      <c r="X45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>356</v>
+      </c>
+      <c r="O46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>371</v>
+      </c>
+      <c r="X46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>374</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>375</v>
+      </c>
+      <c r="J47" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" t="s">
+        <v>377</v>
+      </c>
+      <c r="L47" t="s">
+        <v>378</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>380</v>
+      </c>
+      <c r="X48" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>390</v>
+      </c>
+      <c r="J49" t="s">
+        <v>391</v>
+      </c>
+      <c r="K49" t="s">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s">
+        <v>393</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>379</v>
+      </c>
+      <c r="O49" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>394</v>
+      </c>
+      <c r="X49" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>398</v>
+      </c>
+      <c r="J50" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s">
+        <v>400</v>
+      </c>
+      <c r="L50" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>402</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>403</v>
+      </c>
+      <c r="X50" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>402</v>
+      </c>
+      <c r="O51" t="s">
+        <v>112</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>411</v>
+      </c>
+      <c r="X51" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>419</v>
+      </c>
+      <c r="O52" t="s">
+        <v>112</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>420</v>
+      </c>
+      <c r="X52" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>419</v>
+      </c>
+      <c r="O53" t="s">
+        <v>112</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>428</v>
+      </c>
+      <c r="X53" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>432</v>
+      </c>
+      <c r="J54" t="s">
+        <v>433</v>
+      </c>
+      <c r="K54" t="s">
+        <v>434</v>
+      </c>
+      <c r="L54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>436</v>
+      </c>
+      <c r="X54" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>444</v>
+      </c>
+      <c r="O55" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>448</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>449</v>
+      </c>
+      <c r="J56" t="s">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>451</v>
+      </c>
+      <c r="L56" t="s">
+        <v>452</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>453</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>454</v>
+      </c>
+      <c r="X56" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>457</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J57" t="s">
+        <v>459</v>
+      </c>
+      <c r="K57" t="s">
+        <v>460</v>
+      </c>
+      <c r="L57" t="s">
+        <v>461</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>462</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>463</v>
+      </c>
+      <c r="X57" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" t="s">
+        <v>468</v>
+      </c>
+      <c r="K58" t="s">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s">
+        <v>474</v>
+      </c>
+      <c r="L59" t="s">
+        <v>475</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>476</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>477</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>478</v>
+      </c>
+      <c r="J60" t="s">
+        <v>479</v>
+      </c>
+      <c r="K60" t="s">
+        <v>480</v>
+      </c>
+      <c r="L60" t="s">
+        <v>481</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>482</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>483</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>484</v>
+      </c>
+      <c r="J61" t="s">
+        <v>485</v>
+      </c>
+      <c r="K61" t="s">
+        <v>486</v>
+      </c>
+      <c r="L61" t="s">
+        <v>487</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>488</v>
+      </c>
+      <c r="O61" t="s">
+        <v>112</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>489</v>
+      </c>
+      <c r="X61" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" t="s">
+        <v>494</v>
+      </c>
+      <c r="K62" t="s">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s">
+        <v>496</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>488</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>489</v>
+      </c>
+      <c r="X62" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>499</v>
+      </c>
+      <c r="J63" t="s">
+        <v>500</v>
+      </c>
+      <c r="K63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L63" t="s">
+        <v>502</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>503</v>
+      </c>
+      <c r="O63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>489</v>
+      </c>
+      <c r="X63" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>506</v>
+      </c>
+      <c r="J64" t="s">
+        <v>507</v>
+      </c>
+      <c r="K64" t="s">
+        <v>508</v>
+      </c>
+      <c r="L64" t="s">
+        <v>509</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>510</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>511</v>
+      </c>
+      <c r="X64" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>515</v>
+      </c>
+      <c r="J65" t="s">
+        <v>516</v>
+      </c>
+      <c r="K65" t="s">
+        <v>517</v>
+      </c>
+      <c r="L65" t="s">
+        <v>518</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>519</v>
+      </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>520</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>521</v>
+      </c>
+      <c r="J66" t="s">
+        <v>522</v>
+      </c>
+      <c r="K66" t="s">
+        <v>523</v>
+      </c>
+      <c r="L66" t="s">
+        <v>524</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>525</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>526</v>
+      </c>
+      <c r="X66" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>529</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>530</v>
+      </c>
+      <c r="J67" t="s">
+        <v>531</v>
+      </c>
+      <c r="K67" t="s">
+        <v>532</v>
+      </c>
+      <c r="L67" t="s">
+        <v>533</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>534</v>
+      </c>
+      <c r="O67" t="s">
+        <v>349</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>535</v>
+      </c>
+      <c r="X67" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>538</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>539</v>
+      </c>
+      <c r="J68" t="s">
+        <v>540</v>
+      </c>
+      <c r="K68" t="s">
+        <v>541</v>
+      </c>
+      <c r="L68" t="s">
+        <v>542</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X68" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>546</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>547</v>
+      </c>
+      <c r="J69" t="s">
+        <v>548</v>
+      </c>
+      <c r="K69" t="s">
+        <v>549</v>
+      </c>
+      <c r="L69" t="s">
+        <v>550</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>551</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>543</v>
+      </c>
+      <c r="X69" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>553</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>554</v>
+      </c>
+      <c r="J70" t="s">
+        <v>555</v>
+      </c>
+      <c r="K70" t="s">
+        <v>556</v>
+      </c>
+      <c r="L70" t="s">
+        <v>557</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>558</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>559</v>
+      </c>
+      <c r="X70" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>562</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>563</v>
+      </c>
+      <c r="J71" t="s">
+        <v>564</v>
+      </c>
+      <c r="K71" t="s">
+        <v>565</v>
+      </c>
+      <c r="L71" t="s">
+        <v>566</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>567</v>
+      </c>
+      <c r="X71" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>570</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>571</v>
+      </c>
+      <c r="J72" t="s">
+        <v>572</v>
+      </c>
+      <c r="K72" t="s">
+        <v>573</v>
+      </c>
+      <c r="L72" t="s">
+        <v>574</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>575</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>567</v>
+      </c>
+      <c r="X72" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>580</v>
+      </c>
+      <c r="L73" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>510</v>
+      </c>
+      <c r="O73" t="s">
+        <v>349</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>567</v>
+      </c>
+      <c r="X73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>583</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>584</v>
+      </c>
+      <c r="J74" t="s">
+        <v>585</v>
+      </c>
+      <c r="K74" t="s">
+        <v>586</v>
+      </c>
+      <c r="L74" t="s">
+        <v>587</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>510</v>
+      </c>
+      <c r="O74" t="s">
+        <v>112</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>567</v>
+      </c>
+      <c r="X74" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>589</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>590</v>
+      </c>
+      <c r="J75" t="s">
+        <v>591</v>
+      </c>
+      <c r="K75" t="s">
+        <v>592</v>
+      </c>
+      <c r="L75" t="s">
+        <v>593</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>503</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>594</v>
+      </c>
+      <c r="X75" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K76" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>602</v>
+      </c>
+      <c r="O76" t="s">
+        <v>112</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>594</v>
+      </c>
+      <c r="X76" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>604</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>605</v>
+      </c>
+      <c r="J77" t="s">
+        <v>606</v>
+      </c>
+      <c r="K77" t="s">
+        <v>607</v>
+      </c>
+      <c r="L77" t="s">
+        <v>608</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>609</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>610</v>
+      </c>
+      <c r="X77" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>613</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>614</v>
+      </c>
+      <c r="J78" t="s">
+        <v>615</v>
+      </c>
+      <c r="K78" t="s">
+        <v>616</v>
+      </c>
+      <c r="L78" t="s">
+        <v>617</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>609</v>
+      </c>
+      <c r="O78" t="s">
+        <v>112</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>618</v>
+      </c>
+      <c r="X78" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>620</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>621</v>
+      </c>
+      <c r="J79" t="s">
+        <v>622</v>
+      </c>
+      <c r="K79" t="s">
+        <v>623</v>
+      </c>
+      <c r="L79" t="s">
+        <v>624</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>609</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>610</v>
+      </c>
+      <c r="X79" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>626</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>627</v>
+      </c>
+      <c r="J80" t="s">
+        <v>628</v>
+      </c>
+      <c r="K80" t="s">
+        <v>629</v>
+      </c>
+      <c r="L80" t="s">
+        <v>630</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>631</v>
+      </c>
+      <c r="O80" t="s">
+        <v>349</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>618</v>
+      </c>
+      <c r="X80" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>633</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>634</v>
+      </c>
+      <c r="J81" t="s">
+        <v>635</v>
+      </c>
+      <c r="K81" t="s">
+        <v>636</v>
+      </c>
+      <c r="L81" t="s">
+        <v>637</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>638</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>640</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>641</v>
+      </c>
+      <c r="J82" t="s">
+        <v>642</v>
+      </c>
+      <c r="K82" t="s">
+        <v>643</v>
+      </c>
+      <c r="L82" t="s">
+        <v>644</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>646</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>647</v>
+      </c>
+      <c r="J83" t="s">
+        <v>648</v>
+      </c>
+      <c r="K83" t="s">
+        <v>649</v>
+      </c>
+      <c r="L83" t="s">
+        <v>650</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>652</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>653</v>
+      </c>
+      <c r="J84" t="s">
+        <v>654</v>
+      </c>
+      <c r="K84" t="s">
+        <v>655</v>
+      </c>
+      <c r="L84" t="s">
+        <v>656</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>645</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60851</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>657</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>658</v>
+      </c>
+      <c r="J85" t="s">
+        <v>659</v>
+      </c>
+      <c r="K85" t="s">
+        <v>660</v>
+      </c>
+      <c r="L85" t="s">
+        <v>661</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>645</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
